--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO UNICORNIO SUR (MODIFICACIÓN RCA 104/2014)</t>
+          <t>PUERTO NUEVO, ENSENADA MORENO, SENO SKYRING, COMUNA DE RIO VERDE, REGIÓN DE MAGALLANES Y ANTARTICA CHILENA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SKYSAL S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2021</t>
+          <t>07/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150782245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156219981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/08/2020</t>
+          <t>17/02/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150782245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, CANAL BERTRAND, AL NORTE DE ISLA RIESCO, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 213121034</t>
+          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO UNICORNIO SUR (MODIFICACIÓN RCA 104/2014)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CULTIVOS OTWAY S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>26/02/2020</t>
+          <t>19/08/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Caiquen N° de Solicitud 214 121 010</t>
+          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, CANAL BERTRAND, AL NORTE DE ISLA RIESCO, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 213121034</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14/02/2020</t>
+          <t>26/02/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145666845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Centro de Cultivo de Salmónidos Caiquen N° de Solicitud 214 121 010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,20 +626,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>CULTIVOS OTWAY S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25000</v>
+        <v>4600</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>14/02/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145666845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS SENO GALVARINO, AL NORTE DE ISLA GRANDE, ISLA RIESCO, COMUNA DE RIO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA, NÚMERO PERT 207121276</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,20 +674,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7207</v>
+        <v>25000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145051998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Sur Islotes Beytía (N° de Solicitud 214 121 001)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS SENO GALVARINO, AL NORTE DE ISLA GRANDE, ISLA RIESCO, COMUNA DE RIO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA, NÚMERO PERT 207121276</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CULTIVOS OTWAY S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>23100</v>
+        <v>7207</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13/11/2019</t>
+          <t>26/11/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144909968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145051998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Sur Islotes Beytía N° de Solicitud 214 121 001</t>
+          <t>Centro de Cultivo de Salmónidos Sur Islotes Beytía (N° de Solicitud 214 121 001)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25/10/2019</t>
+          <t>13/11/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144837509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144909968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de biomasa centro de cultivo Punta Laura Norte (Modificación RCA 103/2014)</t>
+          <t>Centro de Cultivo de Salmónidos Sur Islotes Beytía N° de Solicitud 214 121 001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>CULTIVOS OTWAY S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2000</v>
+        <v>23100</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/07/2019</t>
+          <t>25/10/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143044453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144837509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Golfo Xaultegua, al Noroeste de Punta Leucoton PERT N°211 121 031</t>
+          <t>Ampliación de biomasa centro de cultivo Punta Laura Norte (Modificación RCA 103/2014)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inversiones Pelicano XII SpA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/02/2019</t>
+          <t>18/07/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142529061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143044453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ESTERO PÉREZ DE ARCE, AL NORESTE DE PUNTA RIVERA, ISLA RIESCO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA PERT N°207121260</t>
+          <t>Centro de Engorda de Salmones, Golfo Xaultegua, al Noroeste de Punta Leucoton PERT N°211 121 031</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Inversiones Pelicano XII SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4531</v>
+        <v>2500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142406332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142529061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ENSENADA COLO COLO, AL ESTE DE PUNTA RIQUELME, ISLA RIESCO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA PERT N° 207121264</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ESTERO PÉREZ DE ARCE, AL NORESTE DE PUNTA RIVERA, ISLA RIESCO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA PERT N°207121260</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142428924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142406332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>25/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142407538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142428924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Obras complementarias de decantación y otras acciones, Proyecto Mina Invierno</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ENSENADA COLO COLO, AL ESTE DE PUNTA RIQUELME, ISLA RIESCO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA PERT N° 207121264</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Minera Invierno S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3000</v>
+        <v>4531</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16/10/2018</t>
+          <t>25/01/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141567576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142407538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMÓNIDOS ISLA MARTA (120108), SENO SKYRING, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA"</t>
+          <t>Obras complementarias de decantación y otras acciones, Proyecto Mina Invierno</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Minera Invierno S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>05/07/2018</t>
+          <t>16/10/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140872760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141567576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>?CENTRO DE ENGORDA DE SALMONIDEOS, SUROESTE DE ISLA GRANDE, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 207121076?</t>
+          <t>"MODIFICACIÓN PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMÓNIDOS ISLA MARTA (120108), SENO SKYRING, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/05/2018</t>
+          <t>05/07/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139087443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140872760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"CENTRO DE ENGORDA DE SALMONÍDEOS, SENO SKYRING SECTOR ESTE CALETA GARAY, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 213121007"</t>
+          <t>?CENTRO DE ENGORDA DE SALMONIDEOS, SUROESTE DE ISLA GRANDE, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 207121076?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>07/07/2017</t>
+          <t>08/05/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132534791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139087443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Península Muñoz Gamero, Canal Almte. Martínez, NO Islote Ugalde N° de Solicitud 213121037"</t>
+          <t>"CENTRO DE ENGORDA DE SALMONÍDEOS, SENO SKYRING SECTOR ESTE CALETA GARAY, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 213121007"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>27600</v>
+        <v>2500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09/05/2017</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132345981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132534791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"Ampliación de Proyecto Técnico Seno Skyring, al Este de Punta Rocallosa, Isla Riesco. Comuna de Río Verde, XIIa Región de Magallanes y la Antártica Chilena, PERT N°216121004"</t>
+          <t>"Centro de cultivo de Salmónidos Península Muñoz Gamero, Canal Almte. Martínez, NO Islote Ugalde N° de Solicitud 213121037"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Salmones Alpen Limitada</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2500</v>
+        <v>27600</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/01/2017</t>
+          <t>09/05/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132053231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132345981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico. Canal Muñoz, Isla Pan de Azúcar, sector Costa Oeste, Comuna de Rio Verde, XIIa región de Magallanes y la Antártica Chilena, PERT N°216121003</t>
+          <t>"Ampliación de Proyecto Técnico Seno Skyring, al Este de Punta Rocallosa, Isla Riesco. Comuna de Río Verde, XIIa Región de Magallanes y la Antártica Chilena, PERT N°216121004"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Salmones Alpen Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/01/2017</t>
+          <t>13/01/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132028630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132053231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Furia 120107</t>
+          <t>Ampliación de Proyecto Técnico. Canal Muñoz, Isla Pan de Azúcar, sector Costa Oeste, Comuna de Rio Verde, XIIa región de Magallanes y la Antártica Chilena, PERT N°216121003</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>06/01/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131900736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132028630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico. Isla Riesco al Sur de Punta Lobos, Comuna de Río Verde, XIIa Región de Magallanes y la Antártica Chilena, PERT N°216121069</t>
+          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Furia 120107</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/10/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131830539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131900736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico. Estero Retroceso, al Sureste de Punta Lauca, Isla Riesco. Comuna de Rio Verde, XIIa región de Magallanes y la Antártica Chilena, PERT N°216121002</t>
+          <t>Ampliación de Proyecto Técnico. Isla Riesco al Sur de Punta Lobos, Comuna de Río Verde, XIIa Región de Magallanes y la Antártica Chilena, PERT N°216121069</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22/09/2016</t>
+          <t>06/10/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131803224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131830539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónidos. Bahía Beaufort, al Sureste de Islote Redondo, Isla Emiliano Figueroa. Pert 207 121 236</t>
+          <t>Ampliación de Proyecto Técnico. Estero Retroceso, al Sureste de Punta Lauca, Isla Riesco. Comuna de Rio Verde, XIIa región de Magallanes y la Antártica Chilena, PERT N°216121002</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/07/2016</t>
+          <t>22/09/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131538785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131803224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Marta 120108</t>
+          <t>Centro de Engorda de Salmónidos. Bahía Beaufort, al Sureste de Islote Redondo, Isla Emiliano Figueroa. Pert 207 121 236</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12/01/2016</t>
+          <t>08/07/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131047071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131538785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE TRONADURA COMO MÉTODO COMPLEMENTARIO EN LA EXTRACCIÓN MECÁNICA DE MATERIAL ESTÉRIL EN MINA INVIERNO</t>
+          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Marta 120108</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Minera Invierno S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13/11/2015</t>
+          <t>12/01/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130899779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131047071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Marta 120108</t>
+          <t>INCORPORACIÓN DE TRONADURA COMO MÉTODO COMPLEMENTARIO EN LA EXTRACCIÓN MECÁNICA DE MATERIAL ESTÉRIL EN MINA INVIERNO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Minera Invierno S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>13/11/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130784074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130899779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones. Canal Muñoz, al Sur de Isla Pan de Azúcar. Pert 207121238</t>
+          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Marta 120108</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17/06/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130539233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130784074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"CES Bahia Beaufort, Al Norte de Punta Nolasco, Isla Emiliano Figueroa N° Pert 207121162"</t>
+          <t>Centro de Engorda de Salmones. Canal Muñoz, al Sur de Isla Pan de Azúcar. Pert 207121238</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,11 +1787,11 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15/06/2015</t>
+          <t>17/06/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130520635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130539233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE TRONADURA COMO MÉTODO COMPLEMENTARIO EN LA EXTRACCIÓN MECÁNICA DE MATERIAL ESTÉRIL EN MINA INVIERNO</t>
+          <t>"CES Bahia Beaufort, Al Norte de Punta Nolasco, Isla Emiliano Figueroa N° Pert 207121162"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Minera Invierno S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>350</v>
+        <v>3600</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
+          <t>15/06/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130325639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130520635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Incorporación de Tronadura como Método Complementario en la Extracción Mecánica de Material Estéril en Mina Invierno</t>
+          <t>INCORPORACIÓN DE TRONADURA COMO MÉTODO COMPLEMENTARIO EN LA EXTRACCIÓN MECÁNICA DE MATERIAL ESTÉRIL EN MINA INVIERNO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/03/2015</t>
+          <t>23/03/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130303058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130325639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Punta Dársena 120118"</t>
+          <t>Incorporación de Tronadura como Método Complementario en la Extracción Mecánica de Material Estéril en Mina Invierno</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Minera Invierno S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>06/03/2015</t>
+          <t>13/03/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130271109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130303058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Punta Laura 120112"</t>
+          <t>"Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Punta Dársena 120118"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/02/2015</t>
+          <t>06/03/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130271109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 4</t>
+          <t>"Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Punta Laura 120112"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02/10/2014</t>
+          <t>24/02/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129770601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 2</t>
+          <t>"Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/09/2014</t>
+          <t>02/10/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129797609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129770601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 2".</t>
+          <t>Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>03/09/2014</t>
+          <t>08/09/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129755445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129797609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CES Seno Skyring, Ensenada Ponsonby, al Noroeste de Punta Pedregosa, Sector 1, Comuna de Rio Verde, Provincia de Magallanes, XII región de Magallanes y de la Antártica Chilena.</t>
+          <t>"Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 2".</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/07/2014</t>
+          <t>03/09/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129637356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129755445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones. Estero Pérez de Arce, Península Córdova, Sector Este Puerto Brown. Pert 207121259</t>
+          <t>CES Seno Skyring, Ensenada Ponsonby, al Noroeste de Punta Pedregosa, Sector 1, Comuna de Rio Verde, Provincia de Magallanes, XII región de Magallanes y de la Antártica Chilena.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/05/2014</t>
+          <t>23/07/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129468485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129637356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones. Golfo Xaultegua, Isla Riesco, Sector Punta Guacolda. Pert 207121268</t>
+          <t>Centro de Engorda de Salmones. Estero Pérez de Arce, Península Córdova, Sector Este Puerto Brown. Pert 207121259</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16/05/2014</t>
+          <t>19/05/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129468667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129468485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Ensenada Ponsonby, Sector 2, Comuna de Rio Verde, Provincia de Magallanes, XII región de Magallanes y de la Antártica Chilena.</t>
+          <t>Centro de Engorda de Salmones. Golfo Xaultegua, Isla Riesco, Sector Punta Guacolda. Pert 207121268</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12/05/2014</t>
+          <t>16/05/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129440728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129468667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"Centro de engorda de Salmones, Seno Skyring, al Noroeste de Caleta Buena, Islas Sin Nombre, Isla Riesco" PERT Nº 209121025</t>
+          <t>CES, Seno Skyring, Ensenada Ponsonby, Sector 2, Comuna de Rio Verde, Provincia de Magallanes, XII región de Magallanes y de la Antártica Chilena.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>12/05/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129440728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SENO GLACIER, AL NORTE DE PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121156</t>
+          <t>"Centro de engorda de Salmones, Seno Skyring, al Noroeste de Caleta Buena, Islas Sin Nombre, Isla Riesco" PERT Nº 209121025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CANAL ALMIRANTE MARTINEZ AL SUR DE PUNTA PEDRO PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121155</t>
+          <t>CENTRO DE CULTIVO SENO GLACIER, AL NORTE DE PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121156</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTERO SIN NOMBRE AL SURESTE DE PUNTA RAMÓN PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121147</t>
+          <t>CANAL ALMIRANTE MARTINEZ AL SUR DE PUNTA PEDRO PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121155</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL BERTRAND AL SUROESTE DE BAHIA LEON Nº PERT: 208121067</t>
+          <t>CENTRO DE CULTIVO ESTERO SIN NOMBRE AL SURESTE DE PUNTA RAMÓN PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121147</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ISLA SURGIDERO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121119"</t>
+          <t>CENTRO DE CULTIVO CANAL BERTRAND AL SUROESTE DE BAHIA LEON Nº PERT: 208121067</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ISLA SURGIDERO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121119"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>13/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 3 N° PERT 207121126"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>13/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos Seno Skyring Norweste Isla Torres, solicitud 211121017</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 3 N° PERT 207121126"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de cultivo de salmónidos Seno Skyring Norweste Isla Torres, solicitud 211121017</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Seno Skyring, Isla Juan-Punta de Bajo N° Pert 212121012"</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>05/12/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES CANAL BERTRAND, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121036"</t>
+          <t>Centro de Engorda de Salmonideos "Seno Skyring, Isla Juan-Punta de Bajo N° Pert 212121012"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>05/12/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128864131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos Canal Bertrand Seno Skyring Sector 3, solicitud 211121016</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES CANAL BERTRAND, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121036"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>22/11/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128864131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos Canal Bertrand Seno Skyring Sector 2, solicitud 211121015</t>
+          <t>Centro de cultivo de salmónidos Canal Bertrand Seno Skyring Sector 3, solicitud 211121016</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>22/11/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos Seno Skyring Sureste Ensenada Moreno, solicitud 211121010</t>
+          <t>Centro de cultivo de salmónidos Canal Bertrand Seno Skyring Sector 2, solicitud 211121015</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128709965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Sector Seno Skyring, Punta Eulogio" N° PERT 212121011</t>
+          <t>Centro de cultivo de salmónidos Seno Skyring Sureste Ensenada Moreno, solicitud 211121010</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128787381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128709965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Sector Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 2" N° PERT 212121016</t>
+          <t>Centro de Engorda de Salmonideos "Sector Seno Skyring, Punta Eulogio" N° PERT 212121011</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12/11/2013</t>
+          <t>13/11/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128787381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES NORESTE ESTERO NAVARRO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121037"</t>
+          <t>Centro de Engorda de Salmonideos "Sector Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 2" N° PERT 212121016</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5000</v>
+        <v>2400</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11/11/2013</t>
+          <t>12/11/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128796972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES CANAL BERTRAND, AL SURESTE DE ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121033"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES NORESTE ESTERO NAVARRO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121037"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11/10/2013</t>
+          <t>11/11/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128660809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128796972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ESTERO RIQUELME, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121034"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES CANAL BERTRAND, AL SURESTE DE ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121033"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128660854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128660809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 3, NORTE BAHIA LEÓN, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121217"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ESTERO RIQUELME, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121034"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>27/09/2013</t>
+          <t>11/10/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128660854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 5, PUERTO GUZMÁN, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121218"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 3, NORTE BAHIA LEÓN, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121217"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>26/09/2013</t>
+          <t>27/09/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 4, NORESTE ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121213"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 5, PUERTO GUZMÁN, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121218"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Taller de Lavado de Redes Mina Marta, Magallanes</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 4, NORESTE ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121213"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SKYSAL S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>15</v>
+        <v>5000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12/07/2013</t>
+          <t>26/09/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8347537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ESTUARIO GOMEZ CARREÑO, COMUNA DE RÍO VERDE, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121167"</t>
+          <t>Taller de Lavado de Redes Mina Marta, Magallanes</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>SKYSAL S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>09/07/2013</t>
+          <t>12/07/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8313909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8347537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ESTERO PEREZ DE ARCE, COMUNA DE RÍO VERDE, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121169"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ESTUARIO GOMEZ CARREÑO, COMUNA DE RÍO VERDE, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121167"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>6250</v>
+        <v>10000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8313957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8313909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cosecha de Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ESTERO PEREZ DE ARCE, COMUNA DE RÍO VERDE, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121169"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1500</v>
+        <v>6250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>29/05/2013</t>
+          <t>09/07/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8313957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>"Modificación De Proyecto Técnico, Centro De Cultivo De Salmones Norte de Punta Laura, Pert Nº 213121005"</t>
+          <t>Cosecha de Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>28/05/2013</t>
+          <t>29/05/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Taller de Redes Mina Marta</t>
+          <t>"Modificación De Proyecto Técnico, Centro De Cultivo De Salmones Norte de Punta Laura, Pert Nº 213121005"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SKYSAL S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>16/05/2013</t>
+          <t>28/05/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8160849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Taller de Redes Mina Marta</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SKYSAL S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2000</v>
+        <v>15</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>22/04/2013</t>
+          <t>16/05/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8160849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 2, WESTE PUNTA ROCALLOSA, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121220"</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30/11/2012</t>
+          <t>22/04/2013</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Canal Swett, Península Muñoz Gamero, Norte Puerto Saavedra, N° Pert 207121305</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 2, WESTE PUNTA ROCALLOSA, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121220"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09/10/2012</t>
+          <t>30/11/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7386853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Seno Skyring, Isla Riesco, Sector Punta Rocallosa, N° Pert 208121053</t>
+          <t>Centro de Engorda de Salmonídeos Sector Canal Swett, Península Muñoz Gamero, Norte Puerto Saavedra, N° Pert 207121305</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7386966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7386853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Canalizo Norte, Península Muñoz Gamero, N° Pert 207121239</t>
+          <t>Centro de Engorda de Salmonídeos Seno Skyring, Isla Riesco, Sector Punta Rocallosa, N° Pert 208121053</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7388712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7386966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación De Proyecto Técnico, Centro De Cultivo De Salmones" Pert Nº 211121048</t>
+          <t>Centro de Engorda de Salmonídeos Sector Canalizo Norte, Península Muñoz Gamero, N° Pert 207121239</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>31/08/2012</t>
+          <t>09/10/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7279211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7388712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121029"</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación De Proyecto Técnico, Centro De Cultivo De Salmones" Pert Nº 211121048</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>06/07/2012</t>
+          <t>31/08/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7088157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7279211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL MUÑOZ ISLA PAN DE AZÚCAR, SECTOR COSTA OESTE Nº PERT: 207121153</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121029"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>05/07/2012</t>
+          <t>06/07/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7083272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7088157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SENO GLACIER, PENÍNSULA MUÑOZ GAMERO COSTA NORTE, SECTOR 2 Nº PERT: 207121158</t>
+          <t>CENTRO DE CULTIVO CANAL MUÑOZ ISLA PAN DE AZÚCAR, SECTOR COSTA OESTE Nº PERT: 207121153</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7083357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7083272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTERO PÉREZ DE ARCE, PENÍNSULA CÓRDOVA, SECTOR CALETA CASCADA Nº PERT: 207121258</t>
+          <t>CENTRO DE CULTIVO SENO GLACIER, PENÍNSULA MUÑOZ GAMERO COSTA NORTE, SECTOR 2 Nº PERT: 207121158</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>05/07/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7083357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTERO RETROCESO SECTOR SURESTE DE PUNTA LAUCA Nº PERT: 207121272</t>
+          <t>CENTRO DE CULTIVO ESTERO PÉREZ DE ARCE, PENÍNSULA CÓRDOVA, SECTOR CALETA CASCADA Nº PERT: 207121258</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO, ISLA RIESCO SECTOR NORTE DE PTA. SUR Nº PERT: 207121271</t>
+          <t>CENTRO DE CULTIVO ESTERO RETROCESO SECTOR SURESTE DE PUNTA LAUCA Nº PERT: 207121272</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTERO RETROCESO ISLA RIESCO SECTOR SUR Nº PERT: 207121273</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO, ISLA RIESCO SECTOR NORTE DE PTA. SUR Nº PERT: 207121271</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTERO RETROCESO ISLA RIESCO SECTOR SUR Nº PERT: 207121273</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>11/06/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 1 Nº PERT: 207121279</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>07/06/2012</t>
+          <t>11/06/2012</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL BERTRAND, NORTE ISLA RIESCO, COMUNA DE RÍO VERDE, XIIª REGIÓN. Nº PERT: 207121069</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 1 Nº PERT: 207121279</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>19/04/2012</t>
+          <t>07/06/2012</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6818505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO, CENTRO DE CULTIVO DE SALMONES. NORTE PUNTA DARSENA, SENO SKYRING RÍO VERDE, XII REGIÓN PERT Nº 211121047</t>
+          <t>CENTRO DE CULTIVO CANAL BERTRAND, NORTE ISLA RIESCO, COMUNA DE RÍO VERDE, XIIª REGIÓN. Nº PERT: 207121069</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4715,11 +4715,11 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>11/04/2012</t>
+          <t>19/04/2012</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6770133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6818505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 1, SURESTE BAHIA REBOLLEDO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121192"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO, CENTRO DE CULTIVO DE SALMONES. NORTE PUNTA DARSENA, SENO SKYRING RÍO VERDE, XII REGIÓN PERT Nº 211121047</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>11/04/2012</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6770086&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6770133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Sector Peninsula Muñoz Gamero, Seno Skyring, Ensenada Moreno N° Pert 207121103"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 1, SURESTE BAHIA REBOLLEDO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121192"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/02/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6604281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6770086&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos "Sector Peninsula Muñoz Gamero, Seno Skyring, Ensenada Moreno N° Pert 207121103"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>10/02/2012</t>
+          <t>15/02/2012</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6604281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Norte Isla Riesco-Estero Navarro Sector 4 N° Pert 207121130"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>09/02/2012</t>
+          <t>10/02/2012</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-Sur IslaTorres N° Pert 207121125"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Norte Isla Riesco-Estero Navarro Sector 4 N° Pert 207121130"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>08/02/2012</t>
+          <t>09/02/2012</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6576316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Isla Riesco-Desembocadura Estero Navarro N° Pert 207121129"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-Sur IslaTorres N° Pert 207121125"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07/02/2012</t>
+          <t>08/02/2012</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6576594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6576316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Moreno N° Pert 207121103"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Isla Riesco-Desembocadura Estero Navarro N° Pert 207121129"</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6576594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Disposición Final de Residuos Sólidos Comuna Punta Arenas</t>
+          <t>Centro de Engorda de Salmonideos Sector "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Moreno N° Pert 207121103"</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>10500</v>
+        <v>2400</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>05/12/2011</t>
+          <t>07/02/2012</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6346796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO, CENTRO DE CULTIVO DE SALMONES, SURGIDERO FURIA, SENO SKYRING, RÍO VERDE, XII REGIÓN. PERT Nº 211121058</t>
+          <t>Centro de Manejo y Disposición Final de Residuos Sólidos Comuna Punta Arenas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>17/11/2011</t>
+          <t>05/12/2011</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6280582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6346796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Técnico Concesión de Acuicultura de la XII Región, Ensenada Rys, N° PERT 210121036, Salmones Mainstream S.A. Ampliación biomasa Ensenada Rys 210121036</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO, CENTRO DE CULTIVO DE SALMONES, SURGIDERO FURIA, SENO SKYRING, RÍO VERDE, XII REGIÓN. PERT Nº 211121058</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>25/02/2011</t>
+          <t>17/11/2011</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5371030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6280582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Río Verde</t>
+          <t>Ampliación Proyecto Técnico Concesión de Acuicultura de la XII Región, Ensenada Rys, N° PERT 210121036, Salmones Mainstream S.A. Ampliación biomasa Ensenada Rys 210121036</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Río Verde</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>48019</v>
+        <v>2000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>18/06/2010</t>
+          <t>25/02/2011</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4642507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5371030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE MUELLE Y RAMPA DE DESEMBARCO BAHÍA CURTZE ¿ ISLA RIESCO</t>
+          <t>Plan Regulador Comunal de Río Verde</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Eugenio Manuel Vilicic Peña</t>
+          <t>Ilustre Municipalidad de Río Verde</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>83</v>
+        <v>48019</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>18/06/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4521583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4642507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CENTRO PISCICOLA ISLA RIESCO, ESTUARIO FANNY, ESTE PENISULA FRESIA; Nº PERT: 207121044</t>
+          <t>CONSTRUCCIÓN DE MUELLE Y RAMPA DE DESEMBARCO BAHÍA CURTZE ¿ ISLA RIESCO</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Eugenio Manuel Vilicic Peña</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1500</v>
+        <v>83</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>08/04/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4463034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4521583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR ESTE MINA ELENA, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN. Nº Pert 207121030¿</t>
+          <t>CENTRO PISCICOLA ISLA RIESCO, ESTUARIO FANNY, ESTE PENISULA FRESIA; Nº PERT: 207121044</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2755</v>
+        <v>1500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>29/03/2010</t>
+          <t>08/04/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4463412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4463034&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR ESTANCIA MARIA OLVIDO, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN, Nº Pert 207121032¿</t>
+          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR ESTE MINA ELENA, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN. Nº Pert 207121030¿</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3000</v>
+        <v>2755</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4464138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4463412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR RÍO LOS PALOS, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN. Nº Pert 207121031¿</t>
+          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR ESTANCIA MARIA OLVIDO, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN, Nº Pert 207121032¿</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2755</v>
+        <v>3000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4464192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4464138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CENTRO PISCICOLA ISLA RIESCO, ESTUARIO FANNY, ESTE PENISULA FRESIA; Nº PERT: 207121044</t>
+          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR RÍO LOS PALOS, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN. Nº Pert 207121031¿</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1500</v>
+        <v>2755</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>18/03/2010</t>
+          <t>29/03/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4347244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4464192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,10 +5608,14 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto Mina Invierno</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
+          <t>CENTRO PISCICOLA ISLA RIESCO, ESTUARIO FANNY, ESTE PENISULA FRESIA; Nº PERT: 207121044</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -5619,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Minera Invierno S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>180000</v>
+        <v>1500</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>18/01/2010</t>
+          <t>18/03/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4347244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,14 +5656,10 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Centro de cultivo de mitilidos Pesca Suriberica S.A., nº PERT 207121006, Bahìa Rebolledo Seno Skyring, Duodécima Región de Magallanes y Antártica Chilena. CCM,BahìaRebolledoSenoSkyrin,P207121006 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Mina Invierno</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -5667,25 +5667,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Pesca Suribérica S.A.</t>
+          <t>Minera Invierno S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1000</v>
+        <v>180000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14/01/2010</t>
+          <t>18/01/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos Bahia Pinto, Seno Skyring, Nº Pert 206121008, Comuna de Río Verde, Décimo Segunda Región. C.C.MitilidosBahiaPinto,SenoSkyringP206121008 (e-seia)</t>
+          <t>Centro de cultivo de mitilidos Pesca Suriberica S.A., nº PERT 207121006, Bahìa Rebolledo Seno Skyring, Duodécima Región de Magallanes y Antártica Chilena. CCM,BahìaRebolledoSenoSkyrin,P207121006 (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4319810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES SENO SKYRING, SUR DE ISLA ESCARPADA (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos Bahia Pinto, Seno Skyring, Nº Pert 206121008, Comuna de Río Verde, Décimo Segunda Región. C.C.MitilidosBahiaPinto,SenoSkyringP206121008 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Pesca Suribérica S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>14/07/2009</t>
+          <t>14/01/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3900321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4319810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,10 +5796,14 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Portuario Isla Riesco</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>CENTRO DE ENGORDA DE SALMONES SENO SKYRING, SUR DE ISLA ESCARPADA (e-seia)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -5807,25 +5811,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Portuaria Otway Limitada</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>50000</v>
+        <v>3000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3000427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3900321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5840,14 +5844,10 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Suroeste de Isla Escarpada N° PERT 205121007 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Portuario Isla Riesco</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -5855,25 +5855,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Portuaria Otway Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>23/05/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3000427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Este de Isla Isabel, N° PERT 205121003 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Suroeste de Isla Escarpada N° PERT 205121007 (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>21/12/2007</t>
+          <t>23/05/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2588296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Escarpada, N° PERT 205121005 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Este de Isla Isabel, N° PERT 205121003 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2588920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2588296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Marta, N° PERT 205121009 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Escarpada, N° PERT 205121005 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2589561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2588920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Suroeste de Isla Marta, N° PERT 205121010 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Marta, N° PERT 205121009 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2590595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2589561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Centro de engorad de salmones Seno Skyring, Suroeste de isla Marta pert 205121010 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Suroeste de Isla Marta, N° PERT 205121010 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,17 +6103,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>14/12/2007</t>
+          <t>21/12/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2590595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Este de Isla Isabel N° PERT 205121003 (e-seia)</t>
+          <t>Centro de engorad de salmones Seno Skyring, Suroeste de isla Marta pert 205121010 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577193&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Escarpada N° PERT 205121005 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Este de Isla Isabel N° PERT 205121003 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Marta N° PERT 205121009 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Escarpada N° PERT 205121005 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Marta N° PERT 205121009 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6282,30 +6282,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>14/12/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6330,30 +6330,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CES, Pert Nº 204121011 Seno Skyring Surgidero Furia (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6383,15 +6383,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CES, Pert Nº 204121013 Seno Skyring Norte de Punta Laura (e-seia)</t>
+          <t>CES, Pert Nº 204121011 Seno Skyring Surgidero Furia (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CES, Pert Nº 204121013 Seno Skyring Norte de Punta Laura (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6474,16 +6474,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6492,12 +6492,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CENTRO ENGORDA DE SALMONIDEOS Y MITILIDOS PUERTO CURTZE XII REGION (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6522,30 +6522,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PESCA SURIBERICA S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>04/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CENTRO ENGORDA DE SALMONIDEOS Y MITILIDOS PUERTO CURTZE XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6570,30 +6570,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>PESCA SURIBERICA S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>04/01/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CENTRO ENGORDA DE SALMONIDEOS Y MITILIDOS PUERTO CURTZE XII REGION (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6618,30 +6618,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PESCA SURIBERICA S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>21/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1681481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Ensenada Rys, Pert Nº 204121012 (e-seia)</t>
+          <t>CENTRO ENGORDA DE SALMONIDEOS Y MITILIDOS PUERTO CURTZE XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6671,11 +6671,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>PESCA SURIBERICA S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6684,12 +6684,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1681481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de engorda de Salmones seno SkyringSW isla Unicornio, Pert Nº 204121008 (e-seia)</t>
+          <t>CES, Seno Skyring, Ensenada Rys, Pert Nº 204121012 (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,11 +6723,11 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>05/06/2006</t>
+          <t>21/09/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1483171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Norte de Punta Darsena, Pert Nº 204121004 (e-seia)</t>
+          <t>Centro de engorda de Salmones seno SkyringSW isla Unicornio, Pert Nº 204121008 (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/06/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1399843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1483171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Punta Laura, Pert Nº 204121005 (e-seia)</t>
+          <t>CES, Seno Skyring, Norte de Punta Darsena, Pert Nº 204121004 (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1399843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Islas Unicornio, Pert Nº 204121007 CES; Islas Unicornio, Pert Nº 204121007 (e-seia)</t>
+          <t>CES, Seno Skyring, Punta Laura, Pert Nº 204121005 (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CES, 204121009, Seno Skyring, Punta Darsena, Pert Nº 204121009 (e-seia)</t>
+          <t>CES, Seno Skyring, Islas Unicornio, Pert Nº 204121007 CES; Islas Unicornio, Pert Nº 204121007 (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Norteweste Isla Marta CES Isla Marta Nº 204121010 (e-seia)</t>
+          <t>CES, 204121009, Seno Skyring, Punta Darsena, Pert Nº 204121009 (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>24/04/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CES, Seno Skyring, Norteweste Isla Marta CES Isla Marta Nº 204121010 (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7002,30 +7002,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>24/04/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,17 +7063,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7098,30 +7098,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Estero Rebolledo Seno Skyring (201121008)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,25 +7151,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Hector Mario Francisco Feliú Scotti</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>24/02/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Zorrilla - Punta Hall Seno Otway (201121011)</t>
+          <t>Centro de Engorda de Salmonídeos Estero Rebolledo Seno Skyring (201121008)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Zorrilla Seno Otway (201121012)</t>
+          <t>Centro de Engorda de Salmonídeos Punta Zorrilla - Punta Hall Seno Otway (201121011)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Grimal Seno Otway (201121013)</t>
+          <t>Centro de Engorda de Salmonídeos Punta Zorrilla Seno Otway (201121012)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Herradura Seno Skyring (201121015)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Grimal Seno Otway (201121013)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>David Friedli Cartwright</t>
+          <t>Hector Mario Francisco Feliú Scotti</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Ensenada Moreno Seno Skyring (201121016)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Herradura Seno Skyring (201121015)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Zorrilla II Seno Otway (201121014)</t>
+          <t>Centro de Engorda de Salmonídeos Ensenada Moreno Seno Skyring (201121016)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Hector Mario Francisco Feliú Scotti</t>
+          <t>David Friedli Cartwright</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Riego Estancia Adela Río Verde</t>
+          <t>Centro de Engorda de Salmonídeos Punta Zorrilla II Seno Otway (201121014)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,25 +7487,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Peter Thomas Maclean Boyd</t>
+          <t>Hector Mario Francisco Feliú Scotti</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>24/02/2003</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ampliación Concesión para Engorda de Salmónidos en Balsas Jaulas</t>
+          <t>Riego Estancia Adela Río Verde</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,15 +7535,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Salmones Glaciar de los Andes S.A.</t>
+          <t>Peter Thomas Maclean Boyd</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>7150</v>
+        <v>120</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>21/02/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,43 +7568,91 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>Ampliación Concesión para Engorda de Salmónidos en Balsas Jaulas</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Salmones Glaciar de los Andes S.A.</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>7150</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>21/02/2000</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Río Verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
           <t>Sitios de Picnic - Estancia Río Pérez</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
         <is>
           <t>Elena Escobar Cerda</t>
         </is>
       </c>
-      <c r="F151" t="n">
+      <c r="F152" t="n">
         <v>20</v>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>30/10/1997</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=284&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr">
+      <c r="J152" t="inlineStr">
         <is>
           <t>Río Verde</t>
         </is>

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/06/2022</t>
+          <t>18/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PUERTO NUEVO, ENSENADA MORENO, SENO SKYRING, COMUNA DE RIO VERDE, REGIÓN DE MAGALLANES Y ANTARTICA CHILENA</t>
+          <t>MODIFICACIÓN DE BIOMASA DEL CULTIVO DE SALMÓN ATLÁNTICO, RCA 80/2016, CES ISLA MARTA, CÓDIGO DE CENTRO N°120108</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SKYSAL S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/06/2022</t>
+          <t>29/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156219981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158042000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO UNICORNIO SUR (MODIFICACIÓN RCA 104/2014)</t>
+          <t>PUERTO NUEVO, ENSENADA MORENO, SENO SKYRING, COMUNA DE RIO VERDE, REGIÓN DE MAGALLANES Y ANTARTICA CHILENA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SKYSAL S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/02/2021</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150782245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156219981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/08/2020</t>
+          <t>17/02/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150782245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, CANAL BERTRAND, AL NORTE DE ISLA RIESCO, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 213121034</t>
+          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO UNICORNIO SUR (MODIFICACIÓN RCA 104/2014)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CULTIVOS OTWAY S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26/02/2020</t>
+          <t>19/08/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Caiquen N° de Solicitud 214 121 010</t>
+          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, CANAL BERTRAND, AL NORTE DE ISLA RIESCO, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 213121034</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14/02/2020</t>
+          <t>26/02/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145666845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Centro de Cultivo de Salmónidos Caiquen N° de Solicitud 214 121 010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,20 +674,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>CULTIVOS OTWAY S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25000</v>
+        <v>4600</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>14/02/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145666845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS SENO GALVARINO, AL NORTE DE ISLA GRANDE, ISLA RIESCO, COMUNA DE RIO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA, NÚMERO PERT 207121276</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7207</v>
+        <v>25000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>26/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145051998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Sur Islotes Beytía (N° de Solicitud 214 121 001)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS SENO GALVARINO, AL NORTE DE ISLA GRANDE, ISLA RIESCO, COMUNA DE RIO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA, NÚMERO PERT 207121276</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CULTIVOS OTWAY S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>23100</v>
+        <v>7207</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13/11/2019</t>
+          <t>26/11/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144909968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145051998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Sur Islotes Beytía N° de Solicitud 214 121 001</t>
+          <t>Centro de Cultivo de Salmónidos Sur Islotes Beytía (N° de Solicitud 214 121 001)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>25/10/2019</t>
+          <t>13/11/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144837509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144909968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación de biomasa centro de cultivo Punta Laura Norte (Modificación RCA 103/2014)</t>
+          <t>Centro de Cultivo de Salmónidos Sur Islotes Beytía N° de Solicitud 214 121 001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>CULTIVOS OTWAY S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2000</v>
+        <v>23100</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/07/2019</t>
+          <t>25/10/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143044453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144837509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Golfo Xaultegua, al Noroeste de Punta Leucoton PERT N°211 121 031</t>
+          <t>Ampliación de biomasa centro de cultivo Punta Laura Norte (Modificación RCA 103/2014)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inversiones Pelicano XII SpA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/02/2019</t>
+          <t>18/07/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142529061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143044453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ESTERO PÉREZ DE ARCE, AL NORESTE DE PUNTA RIVERA, ISLA RIESCO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA PERT N°207121260</t>
+          <t>Centro de Engorda de Salmones, Golfo Xaultegua, al Noroeste de Punta Leucoton PERT N°211 121 031</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Inversiones Pelicano XII SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4531</v>
+        <v>2500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142406332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142529061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ENSENADA COLO COLO, AL ESTE DE PUNTA RIQUELME, ISLA RIESCO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA PERT N° 207121264</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ESTERO PÉREZ DE ARCE, AL NORESTE DE PUNTA RIVERA, ISLA RIESCO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA PERT N°207121260</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142428924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142406332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>25/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142407538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142428924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Obras complementarias de decantación y otras acciones, Proyecto Mina Invierno</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ENSENADA COLO COLO, AL ESTE DE PUNTA RIQUELME, ISLA RIESCO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA PERT N° 207121264</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Minera Invierno S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3000</v>
+        <v>4531</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16/10/2018</t>
+          <t>25/01/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141567576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142407538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMÓNIDOS ISLA MARTA (120108), SENO SKYRING, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA"</t>
+          <t>Obras complementarias de decantación y otras acciones, Proyecto Mina Invierno</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Minera Invierno S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05/07/2018</t>
+          <t>16/10/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140872760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141567576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>?CENTRO DE ENGORDA DE SALMONIDEOS, SUROESTE DE ISLA GRANDE, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 207121076?</t>
+          <t>"MODIFICACIÓN PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMÓNIDOS ISLA MARTA (120108), SENO SKYRING, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/05/2018</t>
+          <t>05/07/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139087443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140872760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>"CENTRO DE ENGORDA DE SALMONÍDEOS, SENO SKYRING SECTOR ESTE CALETA GARAY, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 213121007"</t>
+          <t>?CENTRO DE ENGORDA DE SALMONIDEOS, SUROESTE DE ISLA GRANDE, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 207121076?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>07/07/2017</t>
+          <t>08/05/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132534791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139087443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Península Muñoz Gamero, Canal Almte. Martínez, NO Islote Ugalde N° de Solicitud 213121037"</t>
+          <t>"CENTRO DE ENGORDA DE SALMONÍDEOS, SENO SKYRING SECTOR ESTE CALETA GARAY, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 213121007"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>27600</v>
+        <v>2500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09/05/2017</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132345981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132534791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Ampliación de Proyecto Técnico Seno Skyring, al Este de Punta Rocallosa, Isla Riesco. Comuna de Río Verde, XIIa Región de Magallanes y la Antártica Chilena, PERT N°216121004"</t>
+          <t>"Centro de cultivo de Salmónidos Península Muñoz Gamero, Canal Almte. Martínez, NO Islote Ugalde N° de Solicitud 213121037"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Salmones Alpen Limitada</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2500</v>
+        <v>27600</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/01/2017</t>
+          <t>09/05/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132053231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132345981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico. Canal Muñoz, Isla Pan de Azúcar, sector Costa Oeste, Comuna de Rio Verde, XIIa región de Magallanes y la Antártica Chilena, PERT N°216121003</t>
+          <t>"Ampliación de Proyecto Técnico Seno Skyring, al Este de Punta Rocallosa, Isla Riesco. Comuna de Río Verde, XIIa Región de Magallanes y la Antártica Chilena, PERT N°216121004"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Salmones Alpen Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/01/2017</t>
+          <t>13/01/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132028630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132053231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Furia 120107</t>
+          <t>Ampliación de Proyecto Técnico. Canal Muñoz, Isla Pan de Azúcar, sector Costa Oeste, Comuna de Rio Verde, XIIa región de Magallanes y la Antártica Chilena, PERT N°216121003</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>06/01/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131900736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132028630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico. Isla Riesco al Sur de Punta Lobos, Comuna de Río Verde, XIIa Región de Magallanes y la Antártica Chilena, PERT N°216121069</t>
+          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Furia 120107</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/10/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131830539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131900736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico. Estero Retroceso, al Sureste de Punta Lauca, Isla Riesco. Comuna de Rio Verde, XIIa región de Magallanes y la Antártica Chilena, PERT N°216121002</t>
+          <t>Ampliación de Proyecto Técnico. Isla Riesco al Sur de Punta Lobos, Comuna de Río Verde, XIIa Región de Magallanes y la Antártica Chilena, PERT N°216121069</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/09/2016</t>
+          <t>06/10/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131803224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131830539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónidos. Bahía Beaufort, al Sureste de Islote Redondo, Isla Emiliano Figueroa. Pert 207 121 236</t>
+          <t>Ampliación de Proyecto Técnico. Estero Retroceso, al Sureste de Punta Lauca, Isla Riesco. Comuna de Rio Verde, XIIa región de Magallanes y la Antártica Chilena, PERT N°216121002</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08/07/2016</t>
+          <t>22/09/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131538785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131803224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Marta 120108</t>
+          <t>Centro de Engorda de Salmónidos. Bahía Beaufort, al Sureste de Islote Redondo, Isla Emiliano Figueroa. Pert 207 121 236</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12/01/2016</t>
+          <t>08/07/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131047071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131538785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE TRONADURA COMO MÉTODO COMPLEMENTARIO EN LA EXTRACCIÓN MECÁNICA DE MATERIAL ESTÉRIL EN MINA INVIERNO</t>
+          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Marta 120108</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Minera Invierno S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13/11/2015</t>
+          <t>12/01/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130899779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131047071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Marta 120108</t>
+          <t>INCORPORACIÓN DE TRONADURA COMO MÉTODO COMPLEMENTARIO EN LA EXTRACCIÓN MECÁNICA DE MATERIAL ESTÉRIL EN MINA INVIERNO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Minera Invierno S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>13/11/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130784074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130899779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones. Canal Muñoz, al Sur de Isla Pan de Azúcar. Pert 207121238</t>
+          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Marta 120108</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17/06/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130539233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130784074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"CES Bahia Beaufort, Al Norte de Punta Nolasco, Isla Emiliano Figueroa N° Pert 207121162"</t>
+          <t>Centro de Engorda de Salmones. Canal Muñoz, al Sur de Isla Pan de Azúcar. Pert 207121238</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/06/2015</t>
+          <t>17/06/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130520635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130539233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE TRONADURA COMO MÉTODO COMPLEMENTARIO EN LA EXTRACCIÓN MECÁNICA DE MATERIAL ESTÉRIL EN MINA INVIERNO</t>
+          <t>"CES Bahia Beaufort, Al Norte de Punta Nolasco, Isla Emiliano Figueroa N° Pert 207121162"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Minera Invierno S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>350</v>
+        <v>3600</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
+          <t>15/06/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130325639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130520635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Incorporación de Tronadura como Método Complementario en la Extracción Mecánica de Material Estéril en Mina Invierno</t>
+          <t>INCORPORACIÓN DE TRONADURA COMO MÉTODO COMPLEMENTARIO EN LA EXTRACCIÓN MECÁNICA DE MATERIAL ESTÉRIL EN MINA INVIERNO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/03/2015</t>
+          <t>23/03/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130303058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130325639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Punta Dársena 120118"</t>
+          <t>Incorporación de Tronadura como Método Complementario en la Extracción Mecánica de Material Estéril en Mina Invierno</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Minera Invierno S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06/03/2015</t>
+          <t>13/03/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130271109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130303058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Punta Laura 120112"</t>
+          <t>"Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Punta Dársena 120118"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/02/2015</t>
+          <t>06/03/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130271109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 4</t>
+          <t>"Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Punta Laura 120112"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>02/10/2014</t>
+          <t>24/02/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129770601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 2</t>
+          <t>"Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/09/2014</t>
+          <t>02/10/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129797609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129770601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 2".</t>
+          <t>Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>03/09/2014</t>
+          <t>08/09/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129755445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129797609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CES Seno Skyring, Ensenada Ponsonby, al Noroeste de Punta Pedregosa, Sector 1, Comuna de Rio Verde, Provincia de Magallanes, XII región de Magallanes y de la Antártica Chilena.</t>
+          <t>"Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 2".</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/07/2014</t>
+          <t>03/09/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129637356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129755445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones. Estero Pérez de Arce, Península Córdova, Sector Este Puerto Brown. Pert 207121259</t>
+          <t>CES Seno Skyring, Ensenada Ponsonby, al Noroeste de Punta Pedregosa, Sector 1, Comuna de Rio Verde, Provincia de Magallanes, XII región de Magallanes y de la Antártica Chilena.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/05/2014</t>
+          <t>23/07/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129468485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129637356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones. Golfo Xaultegua, Isla Riesco, Sector Punta Guacolda. Pert 207121268</t>
+          <t>Centro de Engorda de Salmones. Estero Pérez de Arce, Península Córdova, Sector Este Puerto Brown. Pert 207121259</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>16/05/2014</t>
+          <t>19/05/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129468667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129468485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Ensenada Ponsonby, Sector 2, Comuna de Rio Verde, Provincia de Magallanes, XII región de Magallanes y de la Antártica Chilena.</t>
+          <t>Centro de Engorda de Salmones. Golfo Xaultegua, Isla Riesco, Sector Punta Guacolda. Pert 207121268</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12/05/2014</t>
+          <t>16/05/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129440728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129468667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"Centro de engorda de Salmones, Seno Skyring, al Noroeste de Caleta Buena, Islas Sin Nombre, Isla Riesco" PERT Nº 209121025</t>
+          <t>CES, Seno Skyring, Ensenada Ponsonby, Sector 2, Comuna de Rio Verde, Provincia de Magallanes, XII región de Magallanes y de la Antártica Chilena.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>12/05/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129440728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SENO GLACIER, AL NORTE DE PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121156</t>
+          <t>"Centro de engorda de Salmones, Seno Skyring, al Noroeste de Caleta Buena, Islas Sin Nombre, Isla Riesco" PERT Nº 209121025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CANAL ALMIRANTE MARTINEZ AL SUR DE PUNTA PEDRO PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121155</t>
+          <t>CENTRO DE CULTIVO SENO GLACIER, AL NORTE DE PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121156</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTERO SIN NOMBRE AL SURESTE DE PUNTA RAMÓN PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121147</t>
+          <t>CANAL ALMIRANTE MARTINEZ AL SUR DE PUNTA PEDRO PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121155</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL BERTRAND AL SUROESTE DE BAHIA LEON Nº PERT: 208121067</t>
+          <t>CENTRO DE CULTIVO ESTERO SIN NOMBRE AL SURESTE DE PUNTA RAMÓN PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121147</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ISLA SURGIDERO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121119"</t>
+          <t>CENTRO DE CULTIVO CANAL BERTRAND AL SUROESTE DE BAHIA LEON Nº PERT: 208121067</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ISLA SURGIDERO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121119"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 3 N° PERT 207121126"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>13/12/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos Seno Skyring Norweste Isla Torres, solicitud 211121017</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 3 N° PERT 207121126"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de cultivo de salmónidos Seno Skyring Norweste Isla Torres, solicitud 211121017</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Seno Skyring, Isla Juan-Punta de Bajo N° Pert 212121012"</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>05/12/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES CANAL BERTRAND, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121036"</t>
+          <t>Centro de Engorda de Salmonideos "Seno Skyring, Isla Juan-Punta de Bajo N° Pert 212121012"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>05/12/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128864131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos Canal Bertrand Seno Skyring Sector 3, solicitud 211121016</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES CANAL BERTRAND, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121036"</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/11/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128864131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos Canal Bertrand Seno Skyring Sector 2, solicitud 211121015</t>
+          <t>Centro de cultivo de salmónidos Canal Bertrand Seno Skyring Sector 3, solicitud 211121016</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>22/11/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos Seno Skyring Sureste Ensenada Moreno, solicitud 211121010</t>
+          <t>Centro de cultivo de salmónidos Canal Bertrand Seno Skyring Sector 2, solicitud 211121015</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128709965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Sector Seno Skyring, Punta Eulogio" N° PERT 212121011</t>
+          <t>Centro de cultivo de salmónidos Seno Skyring Sureste Ensenada Moreno, solicitud 211121010</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128787381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128709965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Sector Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 2" N° PERT 212121016</t>
+          <t>Centro de Engorda de Salmonideos "Sector Seno Skyring, Punta Eulogio" N° PERT 212121011</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,11 +3275,11 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12/11/2013</t>
+          <t>13/11/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128787381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES NORESTE ESTERO NAVARRO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121037"</t>
+          <t>Centro de Engorda de Salmonideos "Sector Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 2" N° PERT 212121016</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>2400</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11/11/2013</t>
+          <t>12/11/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128796972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES CANAL BERTRAND, AL SURESTE DE ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121033"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES NORESTE ESTERO NAVARRO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121037"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11/10/2013</t>
+          <t>11/11/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128660809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128796972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ESTERO RIQUELME, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121034"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES CANAL BERTRAND, AL SURESTE DE ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121033"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128660854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128660809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 3, NORTE BAHIA LEÓN, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121217"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ESTERO RIQUELME, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121034"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>27/09/2013</t>
+          <t>11/10/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128660854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 5, PUERTO GUZMÁN, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121218"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 3, NORTE BAHIA LEÓN, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121217"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>26/09/2013</t>
+          <t>27/09/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 4, NORESTE ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121213"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 5, PUERTO GUZMÁN, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121218"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Taller de Lavado de Redes Mina Marta, Magallanes</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 4, NORESTE ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121213"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SKYSAL S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>15</v>
+        <v>5000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12/07/2013</t>
+          <t>26/09/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8347537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ESTUARIO GOMEZ CARREÑO, COMUNA DE RÍO VERDE, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121167"</t>
+          <t>Taller de Lavado de Redes Mina Marta, Magallanes</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>SKYSAL S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09/07/2013</t>
+          <t>12/07/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8313909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8347537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ESTERO PEREZ DE ARCE, COMUNA DE RÍO VERDE, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121169"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ESTUARIO GOMEZ CARREÑO, COMUNA DE RÍO VERDE, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121167"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>6250</v>
+        <v>10000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8313957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8313909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cosecha de Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ESTERO PEREZ DE ARCE, COMUNA DE RÍO VERDE, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121169"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1500</v>
+        <v>6250</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/05/2013</t>
+          <t>09/07/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8313957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>"Modificación De Proyecto Técnico, Centro De Cultivo De Salmones Norte de Punta Laura, Pert Nº 213121005"</t>
+          <t>Cosecha de Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>28/05/2013</t>
+          <t>29/05/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Taller de Redes Mina Marta</t>
+          <t>"Modificación De Proyecto Técnico, Centro De Cultivo De Salmones Norte de Punta Laura, Pert Nº 213121005"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SKYSAL S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>16/05/2013</t>
+          <t>28/05/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8160849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Taller de Redes Mina Marta</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>SKYSAL S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2000</v>
+        <v>15</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>22/04/2013</t>
+          <t>16/05/2013</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8160849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 2, WESTE PUNTA ROCALLOSA, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121220"</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>30/11/2012</t>
+          <t>22/04/2013</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Canal Swett, Península Muñoz Gamero, Norte Puerto Saavedra, N° Pert 207121305</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 2, WESTE PUNTA ROCALLOSA, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121220"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09/10/2012</t>
+          <t>30/11/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7386853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Seno Skyring, Isla Riesco, Sector Punta Rocallosa, N° Pert 208121053</t>
+          <t>Centro de Engorda de Salmonídeos Sector Canal Swett, Península Muñoz Gamero, Norte Puerto Saavedra, N° Pert 207121305</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7386966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7386853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Canalizo Norte, Península Muñoz Gamero, N° Pert 207121239</t>
+          <t>Centro de Engorda de Salmonídeos Seno Skyring, Isla Riesco, Sector Punta Rocallosa, N° Pert 208121053</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7388712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7386966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación De Proyecto Técnico, Centro De Cultivo De Salmones" Pert Nº 211121048</t>
+          <t>Centro de Engorda de Salmonídeos Sector Canalizo Norte, Península Muñoz Gamero, N° Pert 207121239</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>31/08/2012</t>
+          <t>09/10/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7279211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7388712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121029"</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación De Proyecto Técnico, Centro De Cultivo De Salmones" Pert Nº 211121048</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>06/07/2012</t>
+          <t>31/08/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7088157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7279211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL MUÑOZ ISLA PAN DE AZÚCAR, SECTOR COSTA OESTE Nº PERT: 207121153</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121029"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>05/07/2012</t>
+          <t>06/07/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7083272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7088157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SENO GLACIER, PENÍNSULA MUÑOZ GAMERO COSTA NORTE, SECTOR 2 Nº PERT: 207121158</t>
+          <t>CENTRO DE CULTIVO CANAL MUÑOZ ISLA PAN DE AZÚCAR, SECTOR COSTA OESTE Nº PERT: 207121153</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7083357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7083272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTERO PÉREZ DE ARCE, PENÍNSULA CÓRDOVA, SECTOR CALETA CASCADA Nº PERT: 207121258</t>
+          <t>CENTRO DE CULTIVO SENO GLACIER, PENÍNSULA MUÑOZ GAMERO COSTA NORTE, SECTOR 2 Nº PERT: 207121158</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>05/07/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7083357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTERO RETROCESO SECTOR SURESTE DE PUNTA LAUCA Nº PERT: 207121272</t>
+          <t>CENTRO DE CULTIVO ESTERO PÉREZ DE ARCE, PENÍNSULA CÓRDOVA, SECTOR CALETA CASCADA Nº PERT: 207121258</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO, ISLA RIESCO SECTOR NORTE DE PTA. SUR Nº PERT: 207121271</t>
+          <t>CENTRO DE CULTIVO ESTERO RETROCESO SECTOR SURESTE DE PUNTA LAUCA Nº PERT: 207121272</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTERO RETROCESO ISLA RIESCO SECTOR SUR Nº PERT: 207121273</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO, ISLA RIESCO SECTOR NORTE DE PTA. SUR Nº PERT: 207121271</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTERO RETROCESO ISLA RIESCO SECTOR SUR Nº PERT: 207121273</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>11/06/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 1 Nº PERT: 207121279</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07/06/2012</t>
+          <t>11/06/2012</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL BERTRAND, NORTE ISLA RIESCO, COMUNA DE RÍO VERDE, XIIª REGIÓN. Nº PERT: 207121069</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 1 Nº PERT: 207121279</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>19/04/2012</t>
+          <t>07/06/2012</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6818505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO, CENTRO DE CULTIVO DE SALMONES. NORTE PUNTA DARSENA, SENO SKYRING RÍO VERDE, XII REGIÓN PERT Nº 211121047</t>
+          <t>CENTRO DE CULTIVO CANAL BERTRAND, NORTE ISLA RIESCO, COMUNA DE RÍO VERDE, XIIª REGIÓN. Nº PERT: 207121069</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,11 +4763,11 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>11/04/2012</t>
+          <t>19/04/2012</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6770133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6818505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 1, SURESTE BAHIA REBOLLEDO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121192"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO, CENTRO DE CULTIVO DE SALMONES. NORTE PUNTA DARSENA, SENO SKYRING RÍO VERDE, XII REGIÓN PERT Nº 211121047</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>11/04/2012</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6770086&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6770133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Sector Peninsula Muñoz Gamero, Seno Skyring, Ensenada Moreno N° Pert 207121103"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 1, SURESTE BAHIA REBOLLEDO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121192"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>15/02/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6604281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6770086&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos "Sector Peninsula Muñoz Gamero, Seno Skyring, Ensenada Moreno N° Pert 207121103"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>10/02/2012</t>
+          <t>15/02/2012</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6604281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Norte Isla Riesco-Estero Navarro Sector 4 N° Pert 207121130"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09/02/2012</t>
+          <t>10/02/2012</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-Sur IslaTorres N° Pert 207121125"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Norte Isla Riesco-Estero Navarro Sector 4 N° Pert 207121130"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>08/02/2012</t>
+          <t>09/02/2012</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6576316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Isla Riesco-Desembocadura Estero Navarro N° Pert 207121129"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-Sur IslaTorres N° Pert 207121125"</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>07/02/2012</t>
+          <t>08/02/2012</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6576594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6576316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Moreno N° Pert 207121103"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Isla Riesco-Desembocadura Estero Navarro N° Pert 207121129"</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6576594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Disposición Final de Residuos Sólidos Comuna Punta Arenas</t>
+          <t>Centro de Engorda de Salmonideos Sector "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Moreno N° Pert 207121103"</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>10500</v>
+        <v>2400</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>05/12/2011</t>
+          <t>07/02/2012</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6346796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,12 +5224,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO, CENTRO DE CULTIVO DE SALMONES, SURGIDERO FURIA, SENO SKYRING, RÍO VERDE, XII REGIÓN. PERT Nº 211121058</t>
+          <t>Centro de Manejo y Disposición Final de Residuos Sólidos Comuna Punta Arenas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>17/11/2011</t>
+          <t>05/12/2011</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6280582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6346796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Técnico Concesión de Acuicultura de la XII Región, Ensenada Rys, N° PERT 210121036, Salmones Mainstream S.A. Ampliación biomasa Ensenada Rys 210121036</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO, CENTRO DE CULTIVO DE SALMONES, SURGIDERO FURIA, SENO SKYRING, RÍO VERDE, XII REGIÓN. PERT Nº 211121058</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>25/02/2011</t>
+          <t>17/11/2011</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5371030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6280582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Río Verde</t>
+          <t>Ampliación Proyecto Técnico Concesión de Acuicultura de la XII Región, Ensenada Rys, N° PERT 210121036, Salmones Mainstream S.A. Ampliación biomasa Ensenada Rys 210121036</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Río Verde</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>48019</v>
+        <v>2000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18/06/2010</t>
+          <t>25/02/2011</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4642507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5371030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE MUELLE Y RAMPA DE DESEMBARCO BAHÍA CURTZE ¿ ISLA RIESCO</t>
+          <t>Plan Regulador Comunal de Río Verde</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Eugenio Manuel Vilicic Peña</t>
+          <t>Ilustre Municipalidad de Río Verde</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>83</v>
+        <v>48019</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>18/06/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4521583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4642507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CENTRO PISCICOLA ISLA RIESCO, ESTUARIO FANNY, ESTE PENISULA FRESIA; Nº PERT: 207121044</t>
+          <t>CONSTRUCCIÓN DE MUELLE Y RAMPA DE DESEMBARCO BAHÍA CURTZE ¿ ISLA RIESCO</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Eugenio Manuel Vilicic Peña</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1500</v>
+        <v>83</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>08/04/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4463034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4521583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR ESTE MINA ELENA, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN. Nº Pert 207121030¿</t>
+          <t>CENTRO PISCICOLA ISLA RIESCO, ESTUARIO FANNY, ESTE PENISULA FRESIA; Nº PERT: 207121044</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2755</v>
+        <v>1500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>29/03/2010</t>
+          <t>08/04/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4463412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4463034&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR ESTANCIA MARIA OLVIDO, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN, Nº Pert 207121032¿</t>
+          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR ESTE MINA ELENA, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN. Nº Pert 207121030¿</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3000</v>
+        <v>2755</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4464138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4463412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR RÍO LOS PALOS, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN. Nº Pert 207121031¿</t>
+          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR ESTANCIA MARIA OLVIDO, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN, Nº Pert 207121032¿</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2755</v>
+        <v>3000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4464192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4464138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CENTRO PISCICOLA ISLA RIESCO, ESTUARIO FANNY, ESTE PENISULA FRESIA; Nº PERT: 207121044</t>
+          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR RÍO LOS PALOS, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN. Nº Pert 207121031¿</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1500</v>
+        <v>2755</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>18/03/2010</t>
+          <t>29/03/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4347244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4464192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,10 +5656,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto Mina Invierno</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>CENTRO PISCICOLA ISLA RIESCO, ESTUARIO FANNY, ESTE PENISULA FRESIA; Nº PERT: 207121044</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -5667,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Minera Invierno S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>180000</v>
+        <v>1500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>18/01/2010</t>
+          <t>18/03/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4347244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,14 +5704,10 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Centro de cultivo de mitilidos Pesca Suriberica S.A., nº PERT 207121006, Bahìa Rebolledo Seno Skyring, Duodécima Región de Magallanes y Antártica Chilena. CCM,BahìaRebolledoSenoSkyrin,P207121006 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Mina Invierno</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Pesca Suribérica S.A.</t>
+          <t>Minera Invierno S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1000</v>
+        <v>180000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>14/01/2010</t>
+          <t>18/01/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos Bahia Pinto, Seno Skyring, Nº Pert 206121008, Comuna de Río Verde, Décimo Segunda Región. C.C.MitilidosBahiaPinto,SenoSkyringP206121008 (e-seia)</t>
+          <t>Centro de cultivo de mitilidos Pesca Suriberica S.A., nº PERT 207121006, Bahìa Rebolledo Seno Skyring, Duodécima Región de Magallanes y Antártica Chilena. CCM,BahìaRebolledoSenoSkyrin,P207121006 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4319810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES SENO SKYRING, SUR DE ISLA ESCARPADA (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos Bahia Pinto, Seno Skyring, Nº Pert 206121008, Comuna de Río Verde, Décimo Segunda Región. C.C.MitilidosBahiaPinto,SenoSkyringP206121008 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,15 +5811,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Pesca Suribérica S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>14/07/2009</t>
+          <t>14/01/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3900321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4319810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,10 +5844,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Portuario Isla Riesco</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>CENTRO DE ENGORDA DE SALMONES SENO SKYRING, SUR DE ISLA ESCARPADA (e-seia)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -5855,25 +5859,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Portuaria Otway Limitada</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>50000</v>
+        <v>3000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3000427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3900321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5888,14 +5892,10 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Suroeste de Isla Escarpada N° PERT 205121007 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Portuario Isla Riesco</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -5903,25 +5903,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Portuaria Otway Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>23/05/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3000427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Este de Isla Isabel, N° PERT 205121003 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Suroeste de Isla Escarpada N° PERT 205121007 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>21/12/2007</t>
+          <t>23/05/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2588296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Escarpada, N° PERT 205121005 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Este de Isla Isabel, N° PERT 205121003 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2588920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2588296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Marta, N° PERT 205121009 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Escarpada, N° PERT 205121005 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2589561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2588920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Suroeste de Isla Marta, N° PERT 205121010 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Marta, N° PERT 205121009 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2590595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2589561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de engorad de salmones Seno Skyring, Suroeste de isla Marta pert 205121010 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Suroeste de Isla Marta, N° PERT 205121010 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,17 +6151,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>14/12/2007</t>
+          <t>21/12/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2590595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Este de Isla Isabel N° PERT 205121003 (e-seia)</t>
+          <t>Centro de engorad de salmones Seno Skyring, Suroeste de isla Marta pert 205121010 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577193&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Escarpada N° PERT 205121005 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Este de Isla Isabel N° PERT 205121003 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Marta N° PERT 205121009 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Escarpada N° PERT 205121005 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Marta N° PERT 205121009 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6330,30 +6330,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>14/12/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6378,30 +6378,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CES, Pert Nº 204121011 Seno Skyring Surgidero Furia (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6431,15 +6431,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CES, Pert Nº 204121013 Seno Skyring Norte de Punta Laura (e-seia)</t>
+          <t>CES, Pert Nº 204121011 Seno Skyring Surgidero Furia (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CES, Pert Nº 204121013 Seno Skyring Norte de Punta Laura (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6522,16 +6522,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6540,12 +6540,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CENTRO ENGORDA DE SALMONIDEOS Y MITILIDOS PUERTO CURTZE XII REGION (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6570,30 +6570,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>PESCA SURIBERICA S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>04/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CENTRO ENGORDA DE SALMONIDEOS Y MITILIDOS PUERTO CURTZE XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6618,30 +6618,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>PESCA SURIBERICA S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>04/01/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CENTRO ENGORDA DE SALMONIDEOS Y MITILIDOS PUERTO CURTZE XII REGION (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6666,30 +6666,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PESCA SURIBERICA S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>21/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1681481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Ensenada Rys, Pert Nº 204121012 (e-seia)</t>
+          <t>CENTRO ENGORDA DE SALMONIDEOS Y MITILIDOS PUERTO CURTZE XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6719,11 +6719,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>PESCA SURIBERICA S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6732,12 +6732,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1681481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de engorda de Salmones seno SkyringSW isla Unicornio, Pert Nº 204121008 (e-seia)</t>
+          <t>CES, Seno Skyring, Ensenada Rys, Pert Nº 204121012 (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,11 +6771,11 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>05/06/2006</t>
+          <t>21/09/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1483171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Norte de Punta Darsena, Pert Nº 204121004 (e-seia)</t>
+          <t>Centro de engorda de Salmones seno SkyringSW isla Unicornio, Pert Nº 204121008 (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/06/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1399843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1483171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Punta Laura, Pert Nº 204121005 (e-seia)</t>
+          <t>CES, Seno Skyring, Norte de Punta Darsena, Pert Nº 204121004 (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1399843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Islas Unicornio, Pert Nº 204121007 CES; Islas Unicornio, Pert Nº 204121007 (e-seia)</t>
+          <t>CES, Seno Skyring, Punta Laura, Pert Nº 204121005 (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CES, 204121009, Seno Skyring, Punta Darsena, Pert Nº 204121009 (e-seia)</t>
+          <t>CES, Seno Skyring, Islas Unicornio, Pert Nº 204121007 CES; Islas Unicornio, Pert Nº 204121007 (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Norteweste Isla Marta CES Isla Marta Nº 204121010 (e-seia)</t>
+          <t>CES, 204121009, Seno Skyring, Punta Darsena, Pert Nº 204121009 (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>24/04/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CES, Seno Skyring, Norteweste Isla Marta CES Isla Marta Nº 204121010 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7050,30 +7050,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>24/04/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,17 +7111,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7146,30 +7146,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Estero Rebolledo Seno Skyring (201121008)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Hector Mario Francisco Feliú Scotti</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>24/02/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Zorrilla - Punta Hall Seno Otway (201121011)</t>
+          <t>Centro de Engorda de Salmonídeos Estero Rebolledo Seno Skyring (201121008)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Zorrilla Seno Otway (201121012)</t>
+          <t>Centro de Engorda de Salmonídeos Punta Zorrilla - Punta Hall Seno Otway (201121011)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Grimal Seno Otway (201121013)</t>
+          <t>Centro de Engorda de Salmonídeos Punta Zorrilla Seno Otway (201121012)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Herradura Seno Skyring (201121015)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Grimal Seno Otway (201121013)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>David Friedli Cartwright</t>
+          <t>Hector Mario Francisco Feliú Scotti</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Ensenada Moreno Seno Skyring (201121016)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Herradura Seno Skyring (201121015)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Zorrilla II Seno Otway (201121014)</t>
+          <t>Centro de Engorda de Salmonídeos Ensenada Moreno Seno Skyring (201121016)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Hector Mario Francisco Feliú Scotti</t>
+          <t>David Friedli Cartwright</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Riego Estancia Adela Río Verde</t>
+          <t>Centro de Engorda de Salmonídeos Punta Zorrilla II Seno Otway (201121014)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,25 +7535,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Peter Thomas Maclean Boyd</t>
+          <t>Hector Mario Francisco Feliú Scotti</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>24/02/2003</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ampliación Concesión para Engorda de Salmónidos en Balsas Jaulas</t>
+          <t>Riego Estancia Adela Río Verde</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,15 +7583,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Salmones Glaciar de los Andes S.A.</t>
+          <t>Peter Thomas Maclean Boyd</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>7150</v>
+        <v>120</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>21/02/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,43 +7616,91 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
+          <t>Ampliación Concesión para Engorda de Salmónidos en Balsas Jaulas</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Salmones Glaciar de los Andes S.A.</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>7150</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>21/02/2000</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Río Verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
           <t>Sitios de Picnic - Estancia Río Pérez</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
         <is>
           <t>Elena Escobar Cerda</t>
         </is>
       </c>
-      <c r="F152" t="n">
+      <c r="F153" t="n">
         <v>20</v>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>30/10/1997</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=284&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>Río Verde</t>
         </is>

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/12/2022</t>
+          <t>06/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -1748,7 +1748,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE BIOMASA DEL CULTIVO DE SALMÓN ATLÁNTICO, RCA 80/2016, CES ISLA MARTA, CÓDIGO DE CENTRO N°120108</t>
+          <t>PUERTO NUEVO, ENSENADA MORENO, SENO SKYRING, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SKYSAL S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/01/2023</t>
+          <t>15/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158042000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159460015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PUERTO NUEVO, ENSENADA MORENO, SENO SKYRING, COMUNA DE RIO VERDE, REGIÓN DE MAGALLANES Y ANTARTICA CHILENA</t>
+          <t>MODIFICACIÓN DE BIOMASA DEL CULTIVO DE SALMÓN ATLÁNTICO, RCA 80/2016, CES ISLA MARTA, CÓDIGO DE CENTRO N°120108</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SKYSAL S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/06/2022</t>
+          <t>06/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156219981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158042000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO UNICORNIO SUR (MODIFICACIÓN RCA 104/2014)</t>
+          <t>PUERTO NUEVO, ENSENADA MORENO, SENO SKYRING, COMUNA DE RIO VERDE, REGIÓN DE MAGALLANES Y ANTARTICA CHILENA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SKYSAL S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/02/2021</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150782245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156219981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/08/2020</t>
+          <t>17/02/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150782245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, CANAL BERTRAND, AL NORTE DE ISLA RIESCO, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 213121034</t>
+          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO UNICORNIO SUR (MODIFICACIÓN RCA 104/2014)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CULTIVOS OTWAY S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26/02/2020</t>
+          <t>19/08/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Caiquen N° de Solicitud 214 121 010</t>
+          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, CANAL BERTRAND, AL NORTE DE ISLA RIESCO, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 213121034</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14/02/2020</t>
+          <t>26/02/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145666845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Centro de Cultivo de Salmónidos Caiquen N° de Solicitud 214 121 010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>CULTIVOS OTWAY S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25000</v>
+        <v>4600</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>14/02/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145666845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS SENO GALVARINO, AL NORTE DE ISLA GRANDE, ISLA RIESCO, COMUNA DE RIO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA, NÚMERO PERT 207121276</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7207</v>
+        <v>25000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>26/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145051998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Sur Islotes Beytía (N° de Solicitud 214 121 001)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS SENO GALVARINO, AL NORTE DE ISLA GRANDE, ISLA RIESCO, COMUNA DE RIO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA, NÚMERO PERT 207121276</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CULTIVOS OTWAY S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>23100</v>
+        <v>7207</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13/11/2019</t>
+          <t>26/11/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144909968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145051998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Sur Islotes Beytía N° de Solicitud 214 121 001</t>
+          <t>Centro de Cultivo de Salmónidos Sur Islotes Beytía (N° de Solicitud 214 121 001)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>25/10/2019</t>
+          <t>13/11/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144837509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144909968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación de biomasa centro de cultivo Punta Laura Norte (Modificación RCA 103/2014)</t>
+          <t>Centro de Cultivo de Salmónidos Sur Islotes Beytía N° de Solicitud 214 121 001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>CULTIVOS OTWAY S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2000</v>
+        <v>23100</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/07/2019</t>
+          <t>25/10/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143044453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144837509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Golfo Xaultegua, al Noroeste de Punta Leucoton PERT N°211 121 031</t>
+          <t>Ampliación de biomasa centro de cultivo Punta Laura Norte (Modificación RCA 103/2014)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inversiones Pelicano XII SpA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/02/2019</t>
+          <t>18/07/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142529061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143044453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ESTERO PÉREZ DE ARCE, AL NORESTE DE PUNTA RIVERA, ISLA RIESCO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA PERT N°207121260</t>
+          <t>Centro de Engorda de Salmones, Golfo Xaultegua, al Noroeste de Punta Leucoton PERT N°211 121 031</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Inversiones Pelicano XII SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4531</v>
+        <v>2500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142406332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142529061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ENSENADA COLO COLO, AL ESTE DE PUNTA RIQUELME, ISLA RIESCO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA PERT N° 207121264</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ESTERO PÉREZ DE ARCE, AL NORESTE DE PUNTA RIVERA, ISLA RIESCO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA PERT N°207121260</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142428924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142406332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>25/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142407538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142428924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Obras complementarias de decantación y otras acciones, Proyecto Mina Invierno</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ENSENADA COLO COLO, AL ESTE DE PUNTA RIQUELME, ISLA RIESCO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA PERT N° 207121264</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Minera Invierno S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3000</v>
+        <v>4531</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16/10/2018</t>
+          <t>25/01/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141567576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142407538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMÓNIDOS ISLA MARTA (120108), SENO SKYRING, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA"</t>
+          <t>Obras complementarias de decantación y otras acciones, Proyecto Mina Invierno</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Minera Invierno S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05/07/2018</t>
+          <t>16/10/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140872760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141567576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>?CENTRO DE ENGORDA DE SALMONIDEOS, SUROESTE DE ISLA GRANDE, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 207121076?</t>
+          <t>"MODIFICACIÓN PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMÓNIDOS ISLA MARTA (120108), SENO SKYRING, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/05/2018</t>
+          <t>05/07/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139087443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140872760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"CENTRO DE ENGORDA DE SALMONÍDEOS, SENO SKYRING SECTOR ESTE CALETA GARAY, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 213121007"</t>
+          <t>?CENTRO DE ENGORDA DE SALMONIDEOS, SUROESTE DE ISLA GRANDE, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 207121076?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07/07/2017</t>
+          <t>08/05/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132534791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139087443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Península Muñoz Gamero, Canal Almte. Martínez, NO Islote Ugalde N° de Solicitud 213121037"</t>
+          <t>"CENTRO DE ENGORDA DE SALMONÍDEOS, SENO SKYRING SECTOR ESTE CALETA GARAY, COMUNA DE RÍO VERDE, REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, Nº PERT 213121007"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>27600</v>
+        <v>2500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/05/2017</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132345981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132534791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Ampliación de Proyecto Técnico Seno Skyring, al Este de Punta Rocallosa, Isla Riesco. Comuna de Río Verde, XIIa Región de Magallanes y la Antártica Chilena, PERT N°216121004"</t>
+          <t>"Centro de cultivo de Salmónidos Península Muñoz Gamero, Canal Almte. Martínez, NO Islote Ugalde N° de Solicitud 213121037"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Salmones Alpen Limitada</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2500</v>
+        <v>27600</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/01/2017</t>
+          <t>09/05/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132053231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132345981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico. Canal Muñoz, Isla Pan de Azúcar, sector Costa Oeste, Comuna de Rio Verde, XIIa región de Magallanes y la Antártica Chilena, PERT N°216121003</t>
+          <t>"Ampliación de Proyecto Técnico Seno Skyring, al Este de Punta Rocallosa, Isla Riesco. Comuna de Río Verde, XIIa Región de Magallanes y la Antártica Chilena, PERT N°216121004"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Salmones Alpen Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/01/2017</t>
+          <t>13/01/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132028630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132053231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Furia 120107</t>
+          <t>Ampliación de Proyecto Técnico. Canal Muñoz, Isla Pan de Azúcar, sector Costa Oeste, Comuna de Rio Verde, XIIa región de Magallanes y la Antártica Chilena, PERT N°216121003</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>06/01/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131900736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132028630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico. Isla Riesco al Sur de Punta Lobos, Comuna de Río Verde, XIIa Región de Magallanes y la Antártica Chilena, PERT N°216121069</t>
+          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Furia 120107</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/10/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131830539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131900736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico. Estero Retroceso, al Sureste de Punta Lauca, Isla Riesco. Comuna de Rio Verde, XIIa región de Magallanes y la Antártica Chilena, PERT N°216121002</t>
+          <t>Ampliación de Proyecto Técnico. Isla Riesco al Sur de Punta Lobos, Comuna de Río Verde, XIIa Región de Magallanes y la Antártica Chilena, PERT N°216121069</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/09/2016</t>
+          <t>06/10/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131803224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131830539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónidos. Bahía Beaufort, al Sureste de Islote Redondo, Isla Emiliano Figueroa. Pert 207 121 236</t>
+          <t>Ampliación de Proyecto Técnico. Estero Retroceso, al Sureste de Punta Lauca, Isla Riesco. Comuna de Rio Verde, XIIa región de Magallanes y la Antártica Chilena, PERT N°216121002</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/07/2016</t>
+          <t>22/09/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131538785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131803224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Marta 120108</t>
+          <t>Centro de Engorda de Salmónidos. Bahía Beaufort, al Sureste de Islote Redondo, Isla Emiliano Figueroa. Pert 207 121 236</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12/01/2016</t>
+          <t>08/07/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131047071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131538785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE TRONADURA COMO MÉTODO COMPLEMENTARIO EN LA EXTRACCIÓN MECÁNICA DE MATERIAL ESTÉRIL EN MINA INVIERNO</t>
+          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Marta 120108</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Minera Invierno S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13/11/2015</t>
+          <t>12/01/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130899779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131047071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Marta 120108</t>
+          <t>INCORPORACIÓN DE TRONADURA COMO MÉTODO COMPLEMENTARIO EN LA EXTRACCIÓN MECÁNICA DE MATERIAL ESTÉRIL EN MINA INVIERNO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Minera Invierno S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>13/11/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130784074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130899779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones. Canal Muñoz, al Sur de Isla Pan de Azúcar. Pert 207121238</t>
+          <t>Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Marta 120108</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17/06/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130539233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130784074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"CES Bahia Beaufort, Al Norte de Punta Nolasco, Isla Emiliano Figueroa N° Pert 207121162"</t>
+          <t>Centro de Engorda de Salmones. Canal Muñoz, al Sur de Isla Pan de Azúcar. Pert 207121238</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,11 +1883,11 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15/06/2015</t>
+          <t>17/06/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130520635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130539233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE TRONADURA COMO MÉTODO COMPLEMENTARIO EN LA EXTRACCIÓN MECÁNICA DE MATERIAL ESTÉRIL EN MINA INVIERNO</t>
+          <t>"CES Bahia Beaufort, Al Norte de Punta Nolasco, Isla Emiliano Figueroa N° Pert 207121162"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Minera Invierno S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>350</v>
+        <v>3600</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
+          <t>15/06/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130325639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130520635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Incorporación de Tronadura como Método Complementario en la Extracción Mecánica de Material Estéril en Mina Invierno</t>
+          <t>INCORPORACIÓN DE TRONADURA COMO MÉTODO COMPLEMENTARIO EN LA EXTRACCIÓN MECÁNICA DE MATERIAL ESTÉRIL EN MINA INVIERNO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/03/2015</t>
+          <t>23/03/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130303058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130325639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Punta Dársena 120118"</t>
+          <t>Incorporación de Tronadura como Método Complementario en la Extracción Mecánica de Material Estéril en Mina Invierno</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Minera Invierno S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/03/2015</t>
+          <t>13/03/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130271109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130303058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Punta Laura 120112"</t>
+          <t>"Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Punta Dársena 120118"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24/02/2015</t>
+          <t>06/03/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130271109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 4</t>
+          <t>"Modificación de Proyecto Técnico en centro de cultivo de Salmónidos Punta Laura 120112"</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>02/10/2014</t>
+          <t>24/02/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129770601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130188927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 2</t>
+          <t>"Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/09/2014</t>
+          <t>02/10/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129797609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129770601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 2".</t>
+          <t>Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>03/09/2014</t>
+          <t>08/09/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129755445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129797609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CES Seno Skyring, Ensenada Ponsonby, al Noroeste de Punta Pedregosa, Sector 1, Comuna de Rio Verde, Provincia de Magallanes, XII región de Magallanes y de la Antártica Chilena.</t>
+          <t>"Centro de cultivo de Salmónidos Seno Glacier Bahía Sin Nombre Península Muñoz Gamero, Gamero 2".</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/07/2014</t>
+          <t>03/09/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129637356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129755445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones. Estero Pérez de Arce, Península Córdova, Sector Este Puerto Brown. Pert 207121259</t>
+          <t>CES Seno Skyring, Ensenada Ponsonby, al Noroeste de Punta Pedregosa, Sector 1, Comuna de Rio Verde, Provincia de Magallanes, XII región de Magallanes y de la Antártica Chilena.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19/05/2014</t>
+          <t>23/07/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129468485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129637356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones. Golfo Xaultegua, Isla Riesco, Sector Punta Guacolda. Pert 207121268</t>
+          <t>Centro de Engorda de Salmones. Estero Pérez de Arce, Península Córdova, Sector Este Puerto Brown. Pert 207121259</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>16/05/2014</t>
+          <t>19/05/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129468667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129468485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Ensenada Ponsonby, Sector 2, Comuna de Rio Verde, Provincia de Magallanes, XII región de Magallanes y de la Antártica Chilena.</t>
+          <t>Centro de Engorda de Salmones. Golfo Xaultegua, Isla Riesco, Sector Punta Guacolda. Pert 207121268</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12/05/2014</t>
+          <t>16/05/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129440728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129468667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"Centro de engorda de Salmones, Seno Skyring, al Noroeste de Caleta Buena, Islas Sin Nombre, Isla Riesco" PERT Nº 209121025</t>
+          <t>CES, Seno Skyring, Ensenada Ponsonby, Sector 2, Comuna de Rio Verde, Provincia de Magallanes, XII región de Magallanes y de la Antártica Chilena.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>12/05/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129440728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SENO GLACIER, AL NORTE DE PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121156</t>
+          <t>"Centro de engorda de Salmones, Seno Skyring, al Noroeste de Caleta Buena, Islas Sin Nombre, Isla Riesco" PERT Nº 209121025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CANAL ALMIRANTE MARTINEZ AL SUR DE PUNTA PEDRO PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121155</t>
+          <t>CENTRO DE CULTIVO SENO GLACIER, AL NORTE DE PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121156</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTERO SIN NOMBRE AL SURESTE DE PUNTA RAMÓN PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121147</t>
+          <t>CANAL ALMIRANTE MARTINEZ AL SUR DE PUNTA PEDRO PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121155</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL BERTRAND AL SUROESTE DE BAHIA LEON Nº PERT: 208121067</t>
+          <t>CENTRO DE CULTIVO ESTERO SIN NOMBRE AL SURESTE DE PUNTA RAMÓN PENÍNSULA MUÑOZ GAMERO Nº PERT: 207121147</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ISLA SURGIDERO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121119"</t>
+          <t>CENTRO DE CULTIVO CANAL BERTRAND AL SUROESTE DE BAHIA LEON Nº PERT: 208121067</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ISLA SURGIDERO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121119"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>13/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 3 N° PERT 207121126"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>13/12/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos Seno Skyring Norweste Isla Torres, solicitud 211121017</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 3 N° PERT 207121126"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de cultivo de salmónidos Seno Skyring Norweste Isla Torres, solicitud 211121017</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Seno Skyring, Isla Juan-Punta de Bajo N° Pert 212121012"</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SALMONES PORVENIR SPA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>05/12/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES CANAL BERTRAND, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121036"</t>
+          <t>Centro de Engorda de Salmonideos "Seno Skyring, Isla Juan-Punta de Bajo N° Pert 212121012"</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>SALMONES PORVENIR SPA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>05/12/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128864131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos Canal Bertrand Seno Skyring Sector 3, solicitud 211121016</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES CANAL BERTRAND, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121036"</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>22/11/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128864131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos Canal Bertrand Seno Skyring Sector 2, solicitud 211121015</t>
+          <t>Centro de cultivo de salmónidos Canal Bertrand Seno Skyring Sector 3, solicitud 211121016</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>22/11/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos Seno Skyring Sureste Ensenada Moreno, solicitud 211121010</t>
+          <t>Centro de cultivo de salmónidos Canal Bertrand Seno Skyring Sector 2, solicitud 211121015</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128709965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128710036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Sector Seno Skyring, Punta Eulogio" N° PERT 212121011</t>
+          <t>Centro de cultivo de salmónidos Seno Skyring Sureste Ensenada Moreno, solicitud 211121010</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128787381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128709965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Sector Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 2" N° PERT 212121016</t>
+          <t>Centro de Engorda de Salmonideos "Sector Seno Skyring, Punta Eulogio" N° PERT 212121011</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,11 +3323,11 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/11/2013</t>
+          <t>13/11/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128787381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES NORESTE ESTERO NAVARRO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121037"</t>
+          <t>Centro de Engorda de Salmonideos "Sector Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 2" N° PERT 212121016</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5000</v>
+        <v>2400</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11/11/2013</t>
+          <t>12/11/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128796972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES CANAL BERTRAND, AL SURESTE DE ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121033"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES NORESTE ESTERO NAVARRO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121037"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11/10/2013</t>
+          <t>11/11/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128660809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128796972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ESTERO RIQUELME, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121034"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES CANAL BERTRAND, AL SURESTE DE ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121033"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128660854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128660809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 3, NORTE BAHIA LEÓN, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121217"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ESTERO RIQUELME, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121034"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27/09/2013</t>
+          <t>11/10/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128660854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 5, PUERTO GUZMÁN, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121218"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 3, NORTE BAHIA LEÓN, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121217"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>26/09/2013</t>
+          <t>27/09/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 4, NORESTE ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121213"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 5, PUERTO GUZMÁN, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121218"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Taller de Lavado de Redes Mina Marta, Magallanes</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 4, NORESTE ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121213"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SKYSAL S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>15</v>
+        <v>5000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12/07/2013</t>
+          <t>26/09/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8347537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128591062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ESTUARIO GOMEZ CARREÑO, COMUNA DE RÍO VERDE, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121167"</t>
+          <t>Taller de Lavado de Redes Mina Marta, Magallanes</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>SKYSAL S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09/07/2013</t>
+          <t>12/07/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8313909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8347537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ESTERO PEREZ DE ARCE, COMUNA DE RÍO VERDE, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121169"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ESTUARIO GOMEZ CARREÑO, COMUNA DE RÍO VERDE, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121167"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>6250</v>
+        <v>10000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8313957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8313909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cosecha de Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ESTERO PEREZ DE ARCE, COMUNA DE RÍO VERDE, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121169"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1500</v>
+        <v>6250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>29/05/2013</t>
+          <t>09/07/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8313957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"Modificación De Proyecto Técnico, Centro De Cultivo De Salmones Norte de Punta Laura, Pert Nº 213121005"</t>
+          <t>Cosecha de Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>28/05/2013</t>
+          <t>29/05/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Taller de Redes Mina Marta</t>
+          <t>"Modificación De Proyecto Técnico, Centro De Cultivo De Salmones Norte de Punta Laura, Pert Nº 213121005"</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SKYSAL S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16/05/2013</t>
+          <t>28/05/2013</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8160849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Taller de Redes Mina Marta</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>SKYSAL S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2000</v>
+        <v>15</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>22/04/2013</t>
+          <t>16/05/2013</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8160849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 2, WESTE PUNTA ROCALLOSA, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121220"</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>30/11/2012</t>
+          <t>22/04/2013</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Canal Swett, Península Muñoz Gamero, Norte Puerto Saavedra, N° Pert 207121305</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 2, WESTE PUNTA ROCALLOSA, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121220"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09/10/2012</t>
+          <t>30/11/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7386853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Seno Skyring, Isla Riesco, Sector Punta Rocallosa, N° Pert 208121053</t>
+          <t>Centro de Engorda de Salmonídeos Sector Canal Swett, Península Muñoz Gamero, Norte Puerto Saavedra, N° Pert 207121305</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7386966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7386853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Canalizo Norte, Península Muñoz Gamero, N° Pert 207121239</t>
+          <t>Centro de Engorda de Salmonídeos Seno Skyring, Isla Riesco, Sector Punta Rocallosa, N° Pert 208121053</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7388712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7386966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación De Proyecto Técnico, Centro De Cultivo De Salmones" Pert Nº 211121048</t>
+          <t>Centro de Engorda de Salmonídeos Sector Canalizo Norte, Península Muñoz Gamero, N° Pert 207121239</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Islas del Sur Ltda</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>31/08/2012</t>
+          <t>09/10/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7279211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7388712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121029"</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación De Proyecto Técnico, Centro De Cultivo De Salmones" Pert Nº 211121048</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>06/07/2012</t>
+          <t>31/08/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7088157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7279211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL MUÑOZ ISLA PAN DE AZÚCAR, SECTOR COSTA OESTE Nº PERT: 207121153</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES ISLA GRANDE, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121029"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>05/07/2012</t>
+          <t>06/07/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7083272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7088157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SENO GLACIER, PENÍNSULA MUÑOZ GAMERO COSTA NORTE, SECTOR 2 Nº PERT: 207121158</t>
+          <t>CENTRO DE CULTIVO CANAL MUÑOZ ISLA PAN DE AZÚCAR, SECTOR COSTA OESTE Nº PERT: 207121153</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7083357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7083272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTERO PÉREZ DE ARCE, PENÍNSULA CÓRDOVA, SECTOR CALETA CASCADA Nº PERT: 207121258</t>
+          <t>CENTRO DE CULTIVO SENO GLACIER, PENÍNSULA MUÑOZ GAMERO COSTA NORTE, SECTOR 2 Nº PERT: 207121158</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>05/07/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7083357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTERO RETROCESO SECTOR SURESTE DE PUNTA LAUCA Nº PERT: 207121272</t>
+          <t>CENTRO DE CULTIVO ESTERO PÉREZ DE ARCE, PENÍNSULA CÓRDOVA, SECTOR CALETA CASCADA Nº PERT: 207121258</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO, ISLA RIESCO SECTOR NORTE DE PTA. SUR Nº PERT: 207121271</t>
+          <t>CENTRO DE CULTIVO ESTERO RETROCESO SECTOR SURESTE DE PUNTA LAUCA Nº PERT: 207121272</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTERO RETROCESO ISLA RIESCO SECTOR SUR Nº PERT: 207121273</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO, ISLA RIESCO SECTOR NORTE DE PTA. SUR Nº PERT: 207121271</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTERO RETROCESO ISLA RIESCO SECTOR SUR Nº PERT: 207121273</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>11/06/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7058488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 1 Nº PERT: 207121279</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07/06/2012</t>
+          <t>11/06/2012</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL BERTRAND, NORTE ISLA RIESCO, COMUNA DE RÍO VERDE, XIIª REGIÓN. Nº PERT: 207121069</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 1 Nº PERT: 207121279</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>19/04/2012</t>
+          <t>07/06/2012</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6818505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO, CENTRO DE CULTIVO DE SALMONES. NORTE PUNTA DARSENA, SENO SKYRING RÍO VERDE, XII REGIÓN PERT Nº 211121047</t>
+          <t>CENTRO DE CULTIVO CANAL BERTRAND, NORTE ISLA RIESCO, COMUNA DE RÍO VERDE, XIIª REGIÓN. Nº PERT: 207121069</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,11 +4811,11 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>11/04/2012</t>
+          <t>19/04/2012</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6770133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6818505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 1, SURESTE BAHIA REBOLLEDO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121192"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO, CENTRO DE CULTIVO DE SALMONES. NORTE PUNTA DARSENA, SENO SKYRING RÍO VERDE, XII REGIÓN PERT Nº 211121047</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>11/04/2012</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6770086&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6770133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Sector Peninsula Muñoz Gamero, Seno Skyring, Ensenada Moreno N° Pert 207121103"</t>
+          <t>"CENTRO DE CULTIVO DE SALMONES SKYRING 1, SURESTE BAHIA REBOLLEDO, COMUNA DE RÍO VERDE, PROVINCIA DE MAGALLANES, DECIMA SEGUNDA REGIÓN DE MAGALLANES Y ANTARTICA CHILENA, N° PERT 207121192"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>15/02/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6604281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6770086&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos "Sector Peninsula Muñoz Gamero, Seno Skyring, Ensenada Moreno N° Pert 207121103"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>10/02/2012</t>
+          <t>15/02/2012</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6604281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Norte Isla Riesco-Estero Navarro Sector 4 N° Pert 207121130"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09/02/2012</t>
+          <t>10/02/2012</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-Sur IslaTorres N° Pert 207121125"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Norte Isla Riesco-Estero Navarro Sector 4 N° Pert 207121130"</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>08/02/2012</t>
+          <t>09/02/2012</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6576316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Isla Riesco-Desembocadura Estero Navarro N° Pert 207121129"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-Sur IslaTorres N° Pert 207121125"</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>07/02/2012</t>
+          <t>08/02/2012</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6576594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6576316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Moreno N° Pert 207121103"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Isla Riesco-Desembocadura Estero Navarro N° Pert 207121129"</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6576594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,12 +5224,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Disposición Final de Residuos Sólidos Comuna Punta Arenas</t>
+          <t>Centro de Engorda de Salmonideos Sector "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Moreno N° Pert 207121103"</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>10500</v>
+        <v>2400</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>05/12/2011</t>
+          <t>07/02/2012</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6346796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,12 +5272,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO, CENTRO DE CULTIVO DE SALMONES, SURGIDERO FURIA, SENO SKYRING, RÍO VERDE, XII REGIÓN. PERT Nº 211121058</t>
+          <t>Centro de Manejo y Disposición Final de Residuos Sólidos Comuna Punta Arenas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>17/11/2011</t>
+          <t>05/12/2011</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6280582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6346796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Técnico Concesión de Acuicultura de la XII Región, Ensenada Rys, N° PERT 210121036, Salmones Mainstream S.A. Ampliación biomasa Ensenada Rys 210121036</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO, CENTRO DE CULTIVO DE SALMONES, SURGIDERO FURIA, SENO SKYRING, RÍO VERDE, XII REGIÓN. PERT Nº 211121058</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>25/02/2011</t>
+          <t>17/11/2011</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5371030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6280582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Río Verde</t>
+          <t>Ampliación Proyecto Técnico Concesión de Acuicultura de la XII Región, Ensenada Rys, N° PERT 210121036, Salmones Mainstream S.A. Ampliación biomasa Ensenada Rys 210121036</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Río Verde</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>48019</v>
+        <v>2000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>18/06/2010</t>
+          <t>25/02/2011</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4642507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5371030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE MUELLE Y RAMPA DE DESEMBARCO BAHÍA CURTZE ¿ ISLA RIESCO</t>
+          <t>Plan Regulador Comunal de Río Verde</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Eugenio Manuel Vilicic Peña</t>
+          <t>Ilustre Municipalidad de Río Verde</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>83</v>
+        <v>48019</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>18/06/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4521583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4642507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CENTRO PISCICOLA ISLA RIESCO, ESTUARIO FANNY, ESTE PENISULA FRESIA; Nº PERT: 207121044</t>
+          <t>CONSTRUCCIÓN DE MUELLE Y RAMPA DE DESEMBARCO BAHÍA CURTZE ¿ ISLA RIESCO</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Eugenio Manuel Vilicic Peña</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1500</v>
+        <v>83</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>08/04/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4463034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4521583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR ESTE MINA ELENA, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN. Nº Pert 207121030¿</t>
+          <t>CENTRO PISCICOLA ISLA RIESCO, ESTUARIO FANNY, ESTE PENISULA FRESIA; Nº PERT: 207121044</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2755</v>
+        <v>1500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>29/03/2010</t>
+          <t>08/04/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4463412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4463034&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR ESTANCIA MARIA OLVIDO, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN, Nº Pert 207121032¿</t>
+          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR ESTE MINA ELENA, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN. Nº Pert 207121030¿</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3000</v>
+        <v>2755</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4464138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4463412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR RÍO LOS PALOS, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN. Nº Pert 207121031¿</t>
+          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR ESTANCIA MARIA OLVIDO, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN, Nº Pert 207121032¿</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2755</v>
+        <v>3000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4464192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4464138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CENTRO PISCICOLA ISLA RIESCO, ESTUARIO FANNY, ESTE PENISULA FRESIA; Nº PERT: 207121044</t>
+          <t>"CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR RÍO LOS PALOS, ENSENADA PONSONBY, COMUNA DE RIO VERDE, XII REGIÓN. Nº Pert 207121031¿</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1500</v>
+        <v>2755</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>18/03/2010</t>
+          <t>29/03/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4347244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4464192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,10 +5704,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto Mina Invierno</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>CENTRO PISCICOLA ISLA RIESCO, ESTUARIO FANNY, ESTE PENISULA FRESIA; Nº PERT: 207121044</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -5715,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Minera Invierno S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>180000</v>
+        <v>1500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>18/01/2010</t>
+          <t>18/03/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4347244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,14 +5752,10 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de cultivo de mitilidos Pesca Suriberica S.A., nº PERT 207121006, Bahìa Rebolledo Seno Skyring, Duodécima Región de Magallanes y Antártica Chilena. CCM,BahìaRebolledoSenoSkyrin,P207121006 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Mina Invierno</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -5763,25 +5763,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Pesca Suribérica S.A.</t>
+          <t>Minera Invierno S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1000</v>
+        <v>180000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>14/01/2010</t>
+          <t>18/01/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos Bahia Pinto, Seno Skyring, Nº Pert 206121008, Comuna de Río Verde, Décimo Segunda Región. C.C.MitilidosBahiaPinto,SenoSkyringP206121008 (e-seia)</t>
+          <t>Centro de cultivo de mitilidos Pesca Suriberica S.A., nº PERT 207121006, Bahìa Rebolledo Seno Skyring, Duodécima Región de Magallanes y Antártica Chilena. CCM,BahìaRebolledoSenoSkyrin,P207121006 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4319810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES SENO SKYRING, SUR DE ISLA ESCARPADA (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos Bahia Pinto, Seno Skyring, Nº Pert 206121008, Comuna de Río Verde, Décimo Segunda Región. C.C.MitilidosBahiaPinto,SenoSkyringP206121008 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,15 +5859,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Pesca Suribérica S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>14/07/2009</t>
+          <t>14/01/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3900321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4319810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,10 +5892,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Portuario Isla Riesco</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
+          <t>CENTRO DE ENGORDA DE SALMONES SENO SKYRING, SUR DE ISLA ESCARPADA (e-seia)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -5903,25 +5907,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Portuaria Otway Limitada</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>50000</v>
+        <v>3000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3000427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3900321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,14 +5940,10 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Suroeste de Isla Escarpada N° PERT 205121007 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Portuario Isla Riesco</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -5951,25 +5951,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Portuaria Otway Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>23/05/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3000427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Este de Isla Isabel, N° PERT 205121003 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Suroeste de Isla Escarpada N° PERT 205121007 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>21/12/2007</t>
+          <t>23/05/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2588296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Escarpada, N° PERT 205121005 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Este de Isla Isabel, N° PERT 205121003 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2588920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2588296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Marta, N° PERT 205121009 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Escarpada, N° PERT 205121005 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2589561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2588920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Suroeste de Isla Marta, N° PERT 205121010 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Marta, N° PERT 205121009 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2590595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2589561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de engorad de salmones Seno Skyring, Suroeste de isla Marta pert 205121010 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Suroeste de Isla Marta, N° PERT 205121010 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,17 +6199,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>14/12/2007</t>
+          <t>21/12/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2590595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Este de Isla Isabel N° PERT 205121003 (e-seia)</t>
+          <t>Centro de engorad de salmones Seno Skyring, Suroeste de isla Marta pert 205121010 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577193&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Escarpada N° PERT 205121005 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Este de Isla Isabel N° PERT 205121003 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Marta N° PERT 205121009 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Escarpada N° PERT 205121005 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES Seno Skyring, Noreste de Isla Marta N° PERT 205121009 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6378,30 +6378,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>14/12/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6426,30 +6426,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CES, Pert Nº 204121011 Seno Skyring Surgidero Furia (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6479,15 +6479,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CES, Pert Nº 204121013 Seno Skyring Norte de Punta Laura (e-seia)</t>
+          <t>CES, Pert Nº 204121011 Seno Skyring Surgidero Furia (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CES, Pert Nº 204121013 Seno Skyring Norte de Punta Laura (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6570,16 +6570,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6588,12 +6588,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CENTRO ENGORDA DE SALMONIDEOS Y MITILIDOS PUERTO CURTZE XII REGION (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6618,30 +6618,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PESCA SURIBERICA S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>04/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CENTRO ENGORDA DE SALMONIDEOS Y MITILIDOS PUERTO CURTZE XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6666,30 +6666,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>PESCA SURIBERICA S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>04/01/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CENTRO ENGORDA DE SALMONIDEOS Y MITILIDOS PUERTO CURTZE XII REGION (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6714,30 +6714,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>PESCA SURIBERICA S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>21/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1681481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Ensenada Rys, Pert Nº 204121012 (e-seia)</t>
+          <t>CENTRO ENGORDA DE SALMONIDEOS Y MITILIDOS PUERTO CURTZE XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6767,11 +6767,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>PESCA SURIBERICA S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6780,12 +6780,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1681481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de engorda de Salmones seno SkyringSW isla Unicornio, Pert Nº 204121008 (e-seia)</t>
+          <t>CES, Seno Skyring, Ensenada Rys, Pert Nº 204121012 (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,11 +6819,11 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>05/06/2006</t>
+          <t>21/09/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1483171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Norte de Punta Darsena, Pert Nº 204121004 (e-seia)</t>
+          <t>Centro de engorda de Salmones seno SkyringSW isla Unicornio, Pert Nº 204121008 (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/06/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1399843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1483171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Punta Laura, Pert Nº 204121005 (e-seia)</t>
+          <t>CES, Seno Skyring, Norte de Punta Darsena, Pert Nº 204121004 (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1399843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Islas Unicornio, Pert Nº 204121007 CES; Islas Unicornio, Pert Nº 204121007 (e-seia)</t>
+          <t>CES, Seno Skyring, Punta Laura, Pert Nº 204121005 (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CES, 204121009, Seno Skyring, Punta Darsena, Pert Nº 204121009 (e-seia)</t>
+          <t>CES, Seno Skyring, Islas Unicornio, Pert Nº 204121007 CES; Islas Unicornio, Pert Nº 204121007 (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CES, Seno Skyring, Norteweste Isla Marta CES Isla Marta Nº 204121010 (e-seia)</t>
+          <t>CES, 204121009, Seno Skyring, Punta Darsena, Pert Nº 204121009 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>24/04/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CES, Seno Skyring, Norteweste Isla Marta CES Isla Marta Nº 204121010 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7098,30 +7098,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>24/04/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,17 +7159,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7194,30 +7194,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Estero Rebolledo Seno Skyring (201121008)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Hector Mario Francisco Feliú Scotti</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>24/02/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Zorrilla - Punta Hall Seno Otway (201121011)</t>
+          <t>Centro de Engorda de Salmonídeos Estero Rebolledo Seno Skyring (201121008)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Zorrilla Seno Otway (201121012)</t>
+          <t>Centro de Engorda de Salmonídeos Punta Zorrilla - Punta Hall Seno Otway (201121011)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Grimal Seno Otway (201121013)</t>
+          <t>Centro de Engorda de Salmonídeos Punta Zorrilla Seno Otway (201121012)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Herradura Seno Skyring (201121015)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Grimal Seno Otway (201121013)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>David Friedli Cartwright</t>
+          <t>Hector Mario Francisco Feliú Scotti</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Ensenada Moreno Seno Skyring (201121016)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Herradura Seno Skyring (201121015)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Zorrilla II Seno Otway (201121014)</t>
+          <t>Centro de Engorda de Salmonídeos Ensenada Moreno Seno Skyring (201121016)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Hector Mario Francisco Feliú Scotti</t>
+          <t>David Friedli Cartwright</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Riego Estancia Adela Río Verde</t>
+          <t>Centro de Engorda de Salmonídeos Punta Zorrilla II Seno Otway (201121014)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,25 +7583,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Peter Thomas Maclean Boyd</t>
+          <t>Hector Mario Francisco Feliú Scotti</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>24/02/2003</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ampliación Concesión para Engorda de Salmónidos en Balsas Jaulas</t>
+          <t>Riego Estancia Adela Río Verde</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,15 +7631,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Salmones Glaciar de los Andes S.A.</t>
+          <t>Peter Thomas Maclean Boyd</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>7150</v>
+        <v>120</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>21/02/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,43 +7664,91 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
+          <t>Ampliación Concesión para Engorda de Salmónidos en Balsas Jaulas</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Salmones Glaciar de los Andes S.A.</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>7150</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>21/02/2000</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2695&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Río Verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
           <t>Sitios de Picnic - Estancia Río Pérez</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
         <is>
           <t>Elena Escobar Cerda</t>
         </is>
       </c>
-      <c r="F153" t="n">
+      <c r="F154" t="n">
         <v>20</v>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>30/10/1997</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=284&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>Río Verde</t>
         </is>

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Bluriver SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Bluriver SpA</t>
         </is>
       </c>
       <c r="F141" t="n">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Salmones Islas del Sur Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">

--- a/data/Río Verde.xlsx
+++ b/data/Río Verde.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE BIOMASA DEL CULTIVO DE SALMÓN ATLÁNTICO, RCA 80/2016, CES ISLA MARTA, CÓDIGO DE CENTRO N°120108</t>
+          <t>Modificación de Biomasa del Cultivo De Salmón Atlántico, RCA 80/2016, Ces Isla Marta, Código De Centro N°120108</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
+          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salmones Blumar Magallanes SpA</t>
+          <t>Inversiones Peat Energía SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cosecha De Turba "Punta Rocallosa - Caleta Lenka"</t>
+          <t>Centro de Engorda de Salmonideos "Norte Isla Riesco, Estero Navarro, Sector 2 N° Pert 207121127"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Inversiones Peat Energía SpA</t>
+          <t>Salmones Blumar Magallanes SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128869406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
+          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Rolando Parodi Lagos</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Seno Skyring Surweste Punta Isabella. Pert 211 121 023.</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Muñoz Gamero, Seno Skyring, Ensenada Lorca 1 N° Pert 212121006"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Enzo Rolando Parodi Lagos</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128895868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128868588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Sur Weste Isla Unicornio" PERT Nº 212121002</t>
+          <t>"Modificación de Proyecto Técnico, Centro de Cultivo de Salmones, Este Punta Laura" Pert Nº 204121005</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8009007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8065650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
+          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL GAJARDO, BAHÍA BUCKLE ISLA RIESCO SECTOR 2 Nº PERT: 207121280</t>
+          <t>CENTRO DE CULTIVO ESTUARIO GÓMEZ CARREÑO ISLA RIESCO SECTOR COSTA SUR 1 Nº PERT: 207121274</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Acuícola Cordillera Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6972337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Sector "Canal Contreras-SurOeste Isla Sin Nombre N° Pert 207121123"</t>
+          <t>Centro de Engorda de Salmonideos Sector "Estero Sin Nombre-SurOeste Isla Garcia N° Pert 207121071"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6574971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6573580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
